--- a/fr/assets/files/Centreon_platform_sizing.xlsx
+++ b/fr/assets/files/Centreon_platform_sizing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drive d'équipe\Group - Service Desk\_PROJETS-INTERNE\2018-2280-Sizing-Requirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbomm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8282FE4-36F6-4622-A9A9-E806B86AF02B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5018429D-7978-4245-B8D7-A14C632D48E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,6 +42,31 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Arnaud Michel</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{A6E70FBA-80A8-4BCF-95C3-5071A1CB3F66}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mysql&gt; use centreon_storage
+mysql&gt; select count(i.id)/count(distinct(s.service_id)) as "metrics/services" from index_data i left join metrics m on i.id=m.index_id left join services s on s.service_id=i.service_id where i.service_id is not null;
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -173,7 +200,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -208,7 +235,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -269,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="285">
   <si>
     <t>X</t>
   </si>
@@ -1327,6 +1354,9 @@
   <si>
     <t>/var/cache/centreon/backup/</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -1339,7 +1369,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1365,11 +1395,13 @@
       <sz val="10.5"/>
       <color rgb="FFFFFFFF"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1457,6 +1489,7 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1512,6 +1545,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3984,6 +4018,34 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4185,6 +4247,21 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4197,16 +4274,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="42" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="45" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4437,58 +4523,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="45" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5019,15 +5053,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
+          <xdr:colOff>361950</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1280160</xdr:colOff>
+          <xdr:colOff>1276350</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5339,79 +5373,79 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+    <row r="1" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A1" s="299" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="291"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="292"/>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="294"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="292"/>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293"/>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="294"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="292"/>
-      <c r="B4" s="293"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
-      <c r="I4" s="293"/>
-      <c r="J4" s="294"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="292"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="296"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="301"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="302"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
+      <c r="J2" s="304"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="302"/>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="304"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="302"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="304"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="302"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="305"/>
+      <c r="H5" s="305"/>
+      <c r="I5" s="305"/>
+      <c r="J5" s="306"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="251" t="s">
         <v>184</v>
       </c>
@@ -5431,7 +5465,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="88"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="254" t="s">
         <v>188</v>
       </c>
@@ -5449,7 +5483,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="88"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="81" t="s">
         <v>191</v>
       </c>
@@ -5469,7 +5503,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="88"/>
     </row>
-    <row r="9" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" s="81" t="s">
         <v>194</v>
       </c>
@@ -5489,7 +5523,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="88"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="81" t="s">
         <v>196</v>
       </c>
@@ -5509,7 +5543,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="88"/>
     </row>
-    <row r="11" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="39" customHeight="1">
       <c r="A11" s="81" t="s">
         <v>198</v>
       </c>
@@ -5529,7 +5563,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="88"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="192" t="s">
         <v>204</v>
       </c>
@@ -5549,7 +5583,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="88"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="89"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -5561,25 +5595,25 @@
       <c r="I13" s="12"/>
       <c r="J13" s="88"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="297" t="s">
+    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="307" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="298"/>
-      <c r="C14" s="298"/>
-      <c r="D14" s="298"/>
-      <c r="E14" s="298"/>
-      <c r="F14" s="298"/>
-      <c r="G14" s="298"/>
-      <c r="H14" s="298"/>
-      <c r="I14" s="298"/>
-      <c r="J14" s="299"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="302" t="s">
+      <c r="B14" s="308"/>
+      <c r="C14" s="308"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="308"/>
+      <c r="F14" s="308"/>
+      <c r="G14" s="308"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="308"/>
+      <c r="J14" s="309"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="312" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="303"/>
+      <c r="B15" s="313"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -5589,7 +5623,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="88"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="266" t="s">
         <v>209</v>
       </c>
@@ -5605,7 +5639,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="88"/>
     </row>
-    <row r="17" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="30.75" thickBot="1">
       <c r="A17" s="266" t="s">
         <v>210</v>
       </c>
@@ -5625,7 +5659,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="88"/>
     </row>
-    <row r="18" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="45.75" thickBot="1">
       <c r="A18" s="266" t="s">
         <v>212</v>
       </c>
@@ -5641,40 +5675,40 @@
       <c r="I18" s="12"/>
       <c r="J18" s="88"/>
     </row>
-    <row r="19" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="45.75" customHeight="1" thickBot="1">
       <c r="A19" s="267" t="s">
         <v>213</v>
       </c>
       <c r="B19" s="265"/>
-      <c r="C19" s="300" t="s">
+      <c r="C19" s="310" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
+      <c r="D19" s="310"/>
+      <c r="E19" s="310"/>
+      <c r="F19" s="310"/>
+      <c r="G19" s="310"/>
       <c r="H19" s="90"/>
       <c r="I19" s="90"/>
       <c r="J19" s="91"/>
     </row>
-    <row r="20" spans="1:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="64.5" customHeight="1" thickBot="1">
       <c r="A20" s="94"/>
       <c r="B20" s="95"/>
-      <c r="C20" s="301"/>
-      <c r="D20" s="301"/>
-      <c r="E20" s="301"/>
-      <c r="F20" s="301"/>
-      <c r="G20" s="301"/>
+      <c r="C20" s="311"/>
+      <c r="D20" s="311"/>
+      <c r="E20" s="311"/>
+      <c r="F20" s="311"/>
+      <c r="G20" s="311"/>
       <c r="H20" s="92"/>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="G21" s="59"/>
       <c r="H21" s="59"/>
       <c r="I21" s="59"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
@@ -5701,55 +5735,55 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="417" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:17">
+      <c r="A2" s="435" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="418"/>
-      <c r="C2" s="418"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="418"/>
-      <c r="H2" s="418"/>
-      <c r="I2" s="418"/>
-      <c r="J2" s="418"/>
-      <c r="K2" s="418"/>
-      <c r="L2" s="418"/>
-      <c r="M2" s="418"/>
-      <c r="N2" s="418"/>
-      <c r="O2" s="418"/>
-      <c r="P2" s="418"/>
-      <c r="Q2" s="419"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="420"/>
-      <c r="B3" s="421"/>
-      <c r="C3" s="421"/>
-      <c r="D3" s="421"/>
-      <c r="E3" s="421"/>
-      <c r="F3" s="421"/>
-      <c r="G3" s="421"/>
-      <c r="H3" s="422"/>
-      <c r="I3" s="422"/>
-      <c r="J3" s="421"/>
-      <c r="K3" s="422"/>
-      <c r="L3" s="422"/>
-      <c r="M3" s="421"/>
-      <c r="N3" s="421"/>
-      <c r="O3" s="421"/>
-      <c r="P3" s="421"/>
-      <c r="Q3" s="423"/>
-    </row>
-    <row r="4" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="437"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="438"/>
+      <c r="B3" s="439"/>
+      <c r="C3" s="439"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="439"/>
+      <c r="F3" s="439"/>
+      <c r="G3" s="439"/>
+      <c r="H3" s="440"/>
+      <c r="I3" s="440"/>
+      <c r="J3" s="439"/>
+      <c r="K3" s="440"/>
+      <c r="L3" s="440"/>
+      <c r="M3" s="439"/>
+      <c r="N3" s="439"/>
+      <c r="O3" s="439"/>
+      <c r="P3" s="439"/>
+      <c r="Q3" s="441"/>
+    </row>
+    <row r="4" spans="1:17" ht="31.5">
       <c r="A4" s="89"/>
       <c r="B4" s="219"/>
       <c r="C4" s="201" t="s">
@@ -5765,22 +5799,22 @@
         <v>89</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="424" t="s">
+      <c r="H4" s="442" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="424"/>
+      <c r="I4" s="442"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="424" t="s">
+      <c r="K4" s="442" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="424"/>
+      <c r="L4" s="442"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="88"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="89"/>
       <c r="B5" s="87" t="s">
         <v>6</v>
@@ -5790,22 +5824,22 @@
       <c r="E5" s="214"/>
       <c r="F5" s="215"/>
       <c r="G5" s="220"/>
-      <c r="H5" s="416" t="s">
+      <c r="H5" s="434" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="416"/>
+      <c r="I5" s="434"/>
       <c r="J5" s="220"/>
-      <c r="K5" s="416" t="s">
+      <c r="K5" s="434" t="s">
         <v>271</v>
       </c>
-      <c r="L5" s="416"/>
+      <c r="L5" s="434"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="88"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="89"/>
       <c r="B6" s="87" t="s">
         <v>5</v>
@@ -5819,22 +5853,22 @@
       <c r="E6" s="214"/>
       <c r="F6" s="215"/>
       <c r="G6" s="220"/>
-      <c r="H6" s="416" t="s">
+      <c r="H6" s="434" t="s">
         <v>271</v>
       </c>
-      <c r="I6" s="416"/>
+      <c r="I6" s="434"/>
       <c r="J6" s="220"/>
-      <c r="K6" s="416" t="s">
+      <c r="K6" s="434" t="s">
         <v>271</v>
       </c>
-      <c r="L6" s="416"/>
+      <c r="L6" s="434"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="88"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="89"/>
       <c r="B7" s="87" t="s">
         <v>82</v>
@@ -5846,18 +5880,18 @@
       <c r="E7" s="214"/>
       <c r="F7" s="215"/>
       <c r="G7" s="220"/>
-      <c r="H7" s="416"/>
-      <c r="I7" s="416"/>
+      <c r="H7" s="434"/>
+      <c r="I7" s="434"/>
       <c r="J7" s="220"/>
-      <c r="K7" s="416"/>
-      <c r="L7" s="416"/>
+      <c r="K7" s="434"/>
+      <c r="L7" s="434"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="88"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="89"/>
       <c r="B8" s="87" t="s">
         <v>85</v>
@@ -5867,18 +5901,18 @@
       <c r="E8" s="214"/>
       <c r="F8" s="215"/>
       <c r="G8" s="220"/>
-      <c r="H8" s="416"/>
-      <c r="I8" s="416"/>
+      <c r="H8" s="434"/>
+      <c r="I8" s="434"/>
       <c r="J8" s="220"/>
-      <c r="K8" s="416"/>
-      <c r="L8" s="416"/>
+      <c r="K8" s="434"/>
+      <c r="L8" s="434"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="88"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="89"/>
       <c r="B9" s="87" t="s">
         <v>87</v>
@@ -5903,7 +5937,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="88"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="89"/>
       <c r="B10" s="87" t="s">
         <v>88</v>
@@ -5928,7 +5962,7 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="88"/>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="A11" s="94"/>
       <c r="B11" s="216" t="s">
         <v>181</v>
@@ -5971,169 +6005,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="26.109375" customWidth="1"/>
-    <col min="13" max="13" width="26.109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="321" t="s">
+    <row r="1" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A1" s="331" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
-      <c r="G1" s="322"/>
-      <c r="H1" s="322"/>
-      <c r="I1" s="322"/>
-      <c r="J1" s="322"/>
-      <c r="K1" s="322"/>
-      <c r="L1" s="322"/>
-      <c r="M1" s="322"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="321" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="333"/>
+      <c r="O1" s="331" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="322"/>
-      <c r="Q1" s="322"/>
-      <c r="R1" s="322"/>
-      <c r="S1" s="322"/>
-      <c r="T1" s="322"/>
-      <c r="U1" s="322"/>
-      <c r="V1" s="322"/>
-      <c r="W1" s="322"/>
-      <c r="X1" s="323"/>
-    </row>
-    <row r="2" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="319"/>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="319"/>
-      <c r="P2" s="320"/>
-      <c r="Q2" s="320"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="320"/>
-      <c r="T2" s="320"/>
-      <c r="U2" s="320"/>
-      <c r="V2" s="320"/>
-      <c r="W2" s="320"/>
-      <c r="X2" s="324"/>
-    </row>
-    <row r="3" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="319"/>
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="320"/>
-      <c r="K3" s="320"/>
-      <c r="L3" s="320"/>
-      <c r="M3" s="320"/>
-      <c r="N3" s="324"/>
-      <c r="O3" s="319"/>
-      <c r="P3" s="320"/>
-      <c r="Q3" s="320"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="320"/>
-      <c r="T3" s="320"/>
-      <c r="U3" s="320"/>
-      <c r="V3" s="320"/>
-      <c r="W3" s="320"/>
-      <c r="X3" s="324"/>
-    </row>
-    <row r="4" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="319"/>
-      <c r="B4" s="320"/>
-      <c r="C4" s="320"/>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="320"/>
-      <c r="L4" s="320"/>
-      <c r="M4" s="320"/>
-      <c r="N4" s="324"/>
-      <c r="O4" s="319"/>
-      <c r="P4" s="320"/>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="320"/>
-      <c r="S4" s="320"/>
-      <c r="T4" s="320"/>
-      <c r="U4" s="320"/>
-      <c r="V4" s="320"/>
-      <c r="W4" s="320"/>
-      <c r="X4" s="324"/>
-    </row>
-    <row r="5" spans="1:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="325"/>
-      <c r="B5" s="326"/>
-      <c r="C5" s="326"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="326"/>
-      <c r="N5" s="327"/>
-      <c r="O5" s="325"/>
-      <c r="P5" s="326"/>
-      <c r="Q5" s="326"/>
-      <c r="R5" s="326"/>
-      <c r="S5" s="326"/>
-      <c r="T5" s="326"/>
-      <c r="U5" s="326"/>
-      <c r="V5" s="326"/>
-      <c r="W5" s="326"/>
-      <c r="X5" s="327"/>
-    </row>
-    <row r="6" spans="1:28" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
+      <c r="R1" s="332"/>
+      <c r="S1" s="332"/>
+      <c r="T1" s="332"/>
+      <c r="U1" s="332"/>
+      <c r="V1" s="332"/>
+      <c r="W1" s="332"/>
+      <c r="X1" s="333"/>
+    </row>
+    <row r="2" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A2" s="329"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="330"/>
+      <c r="I2" s="330"/>
+      <c r="J2" s="330"/>
+      <c r="K2" s="330"/>
+      <c r="L2" s="330"/>
+      <c r="M2" s="330"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="330"/>
+      <c r="Q2" s="330"/>
+      <c r="R2" s="330"/>
+      <c r="S2" s="330"/>
+      <c r="T2" s="330"/>
+      <c r="U2" s="330"/>
+      <c r="V2" s="330"/>
+      <c r="W2" s="330"/>
+      <c r="X2" s="334"/>
+    </row>
+    <row r="3" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A3" s="329"/>
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
+      <c r="J3" s="330"/>
+      <c r="K3" s="330"/>
+      <c r="L3" s="330"/>
+      <c r="M3" s="330"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="329"/>
+      <c r="P3" s="330"/>
+      <c r="Q3" s="330"/>
+      <c r="R3" s="330"/>
+      <c r="S3" s="330"/>
+      <c r="T3" s="330"/>
+      <c r="U3" s="330"/>
+      <c r="V3" s="330"/>
+      <c r="W3" s="330"/>
+      <c r="X3" s="334"/>
+    </row>
+    <row r="4" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A4" s="329"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="330"/>
+      <c r="K4" s="330"/>
+      <c r="L4" s="330"/>
+      <c r="M4" s="330"/>
+      <c r="N4" s="334"/>
+      <c r="O4" s="329"/>
+      <c r="P4" s="330"/>
+      <c r="Q4" s="330"/>
+      <c r="R4" s="330"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="330"/>
+      <c r="V4" s="330"/>
+      <c r="W4" s="330"/>
+      <c r="X4" s="334"/>
+    </row>
+    <row r="5" spans="1:28" ht="33" customHeight="1" thickBot="1">
+      <c r="A5" s="335"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="336"/>
+      <c r="G5" s="336"/>
+      <c r="H5" s="336"/>
+      <c r="I5" s="336"/>
+      <c r="J5" s="336"/>
+      <c r="K5" s="336"/>
+      <c r="L5" s="336"/>
+      <c r="M5" s="336"/>
+      <c r="N5" s="337"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="336"/>
+      <c r="Q5" s="336"/>
+      <c r="R5" s="336"/>
+      <c r="S5" s="336"/>
+      <c r="T5" s="336"/>
+      <c r="U5" s="336"/>
+      <c r="V5" s="336"/>
+      <c r="W5" s="336"/>
+      <c r="X5" s="337"/>
+    </row>
+    <row r="6" spans="1:28" ht="58.15" customHeight="1" thickBot="1">
       <c r="A6" s="250" t="s">
         <v>218</v>
       </c>
@@ -6153,35 +6187,35 @@
         <v>223</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="328" t="s">
+      <c r="H6" s="338" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="329"/>
+      <c r="I6" s="339"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="330" t="s">
+      <c r="K6" s="340" t="s">
         <v>225</v>
       </c>
-      <c r="L6" s="331"/>
+      <c r="L6" s="341"/>
       <c r="M6" s="111"/>
       <c r="N6" s="110"/>
       <c r="O6" s="89"/>
-      <c r="P6" s="302" t="s">
+      <c r="P6" s="312" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="303"/>
+      <c r="Q6" s="313"/>
       <c r="R6" s="16" t="s">
         <v>242</v>
       </c>
       <c r="S6" s="12"/>
-      <c r="T6" s="328" t="s">
+      <c r="T6" s="338" t="s">
         <v>243</v>
       </c>
-      <c r="U6" s="329"/>
+      <c r="U6" s="339"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="88"/>
     </row>
-    <row r="7" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="30.75" thickBot="1">
       <c r="A7" s="45">
         <v>1000</v>
       </c>
@@ -6191,8 +6225,8 @@
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="4">
-        <f>IF(C7&gt;0,C7*2,B7*2)</f>
-        <v>20000</v>
+        <f>IF(C7&gt;0,C7*4,B7*4)</f>
+        <v>40000</v>
       </c>
       <c r="E7" s="208"/>
       <c r="F7" s="46"/>
@@ -6200,9 +6234,7 @@
       <c r="H7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="47" t="s">
-        <v>0</v>
-      </c>
+      <c r="I7" s="47"/>
       <c r="J7" s="12"/>
       <c r="K7" s="17" t="s">
         <v>24</v>
@@ -6229,7 +6261,7 @@
       <c r="W7" s="12"/>
       <c r="X7" s="88"/>
     </row>
-    <row r="8" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="30.75" thickBot="1">
       <c r="A8" s="89"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -6242,13 +6274,15 @@
       </c>
       <c r="I8" s="47" t="str">
         <f>IF(I7="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="L8" s="50"/>
+      <c r="L8" s="50" t="s">
+        <v>284</v>
+      </c>
       <c r="M8" s="44" t="str">
         <f t="shared" si="0"/>
         <v>Distributed
@@ -6270,7 +6304,7 @@
       <c r="W8" s="12"/>
       <c r="X8" s="88"/>
     </row>
-    <row r="9" spans="1:28" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="60.75" thickBot="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -6283,7 +6317,7 @@
       </c>
       <c r="I9" s="47" t="str">
         <f>IF(I7="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="14" t="s">
@@ -6309,7 +6343,7 @@
       <c r="W9" s="12"/>
       <c r="X9" s="88"/>
     </row>
-    <row r="10" spans="1:28" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="42.75" customHeight="1" thickBot="1">
       <c r="A10" s="191" t="s">
         <v>230</v>
       </c>
@@ -6330,7 +6364,7 @@
       </c>
       <c r="I10" s="47" t="str">
         <f>IF(I7="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="14" t="s">
@@ -6354,16 +6388,16 @@
       <c r="W10" s="12"/>
       <c r="X10" s="88"/>
     </row>
-    <row r="11" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="30.75" thickBot="1">
       <c r="A11" s="186" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="C11" s="211">
         <f>ROUNDUP(IF(AND(B11="X",B12="X"),IF(C7&gt;0,IF(Architecture!C7&lt;=2000,"0",IF(C7&gt;2000,ROUNDUP(C7/7500,0))),IF(Architecture!B7&lt;=2000,"0",IF(B7&gt;2000,ROUNDUP(B7/7500,0))))/2,IF(B11="X",IF(C7&gt;0,IF(Architecture!C7&lt;=2000,"0",IF(C7&gt;2000,ROUNDUP(C7/7500,0))),IF(Architecture!B7&lt;=2000,"0",IF(B7&gt;2000,ROUNDUP(B7/7500,0)))),0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="187"/>
       <c r="E11" s="12"/>
@@ -6374,7 +6408,7 @@
       </c>
       <c r="I11" s="48" t="str">
         <f>IF(I7="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="14" t="s">
@@ -6398,16 +6432,14 @@
       <c r="X11" s="88"/>
       <c r="AB11" s="27"/>
     </row>
-    <row r="12" spans="1:28" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="28.9" customHeight="1" thickBot="1">
       <c r="A12" s="209" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>0</v>
-      </c>
+      <c r="B12" s="55"/>
       <c r="C12" s="211">
         <f>ROUNDUP(IF(AND(B11="X",B12="X"),IF(C7&gt;0,IF(Architecture!C7&lt;=2000,"0",IF(C7&gt;2000,ROUNDUP(C7/7500,0))),IF(Architecture!B7&lt;=2000,"0",IF(B7&gt;2000,ROUNDUP(B7/7500,0))))/2,IF(B12="X",IF(C7&gt;0,IF(Architecture!C7&lt;=2000,"0",IF(C7&gt;2000,ROUNDUP(C7/7500,0))),IF(Architecture!B7&lt;=2000,"0",IF(B7&gt;2000,ROUNDUP(B7/7500,0)))),0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="187"/>
       <c r="E12" s="12"/>
@@ -6419,9 +6451,7 @@
       <c r="K12" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="48" t="s">
-        <v>0</v>
-      </c>
+      <c r="L12" s="48"/>
       <c r="M12" s="44" t="str">
         <f t="shared" si="0"/>
         <v>High Availibility  5 servers</v>
@@ -6438,7 +6468,7 @@
       <c r="W12" s="12"/>
       <c r="X12" s="88"/>
     </row>
-    <row r="13" spans="1:28" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="28.9" customHeight="1" thickBot="1">
       <c r="A13" s="210" t="s">
         <v>234</v>
       </c>
@@ -6468,17 +6498,17 @@
       <c r="W13" s="12"/>
       <c r="X13" s="88"/>
     </row>
-    <row r="14" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="302" t="str">
+    <row r="14" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A14" s="312" t="str">
         <f>IF(B13="X","Total Poller/remote server/central","Total Poller/remote server")</f>
         <v>Total Poller/remote server/central</v>
       </c>
-      <c r="B14" s="303"/>
-      <c r="C14" s="313">
+      <c r="B14" s="313"/>
+      <c r="C14" s="323">
         <f>IF(B13="X",1,0)+IF(D11="",C11,D11)+IF(D12="",C12,D12)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="314"/>
+      <c r="D14" s="324"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6500,17 +6530,17 @@
       <c r="W14" s="12"/>
       <c r="X14" s="88"/>
     </row>
-    <row r="15" spans="1:28" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="317" t="str">
+    <row r="15" spans="1:28" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A15" s="327" t="str">
         <f>IF(B13="X","Total services by Poller/remote server/central","Total services by Poller/remote server")</f>
         <v>Total services by Poller/remote server/central</v>
       </c>
-      <c r="B15" s="318"/>
-      <c r="C15" s="315">
+      <c r="B15" s="328"/>
+      <c r="C15" s="325">
         <f>IF(C7="",B7/(C14),C7/(C14))</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="D15" s="316"/>
+      <c r="D15" s="326"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6532,7 +6562,7 @@
       <c r="W15" s="12"/>
       <c r="X15" s="88"/>
     </row>
-    <row r="16" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="17.45" customHeight="1">
       <c r="A16" s="189"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -6558,7 +6588,7 @@
       <c r="W16" s="12"/>
       <c r="X16" s="88"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="89"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -6584,23 +6614,23 @@
       <c r="W17" s="12"/>
       <c r="X17" s="88"/>
     </row>
-    <row r="18" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="319" t="s">
+    <row r="18" spans="1:24" ht="42" customHeight="1">
+      <c r="A18" s="329" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="320"/>
-      <c r="C18" s="320"/>
-      <c r="D18" s="320"/>
-      <c r="E18" s="320"/>
-      <c r="F18" s="320"/>
-      <c r="G18" s="320"/>
-      <c r="H18" s="320"/>
-      <c r="I18" s="320"/>
-      <c r="J18" s="320"/>
-      <c r="K18" s="320"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="320"/>
-      <c r="N18" s="320"/>
+      <c r="B18" s="330"/>
+      <c r="C18" s="330"/>
+      <c r="D18" s="330"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="330"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="330"/>
+      <c r="I18" s="330"/>
+      <c r="J18" s="330"/>
+      <c r="K18" s="330"/>
+      <c r="L18" s="330"/>
+      <c r="M18" s="330"/>
+      <c r="N18" s="330"/>
       <c r="O18" s="89"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -6612,21 +6642,21 @@
       <c r="W18" s="12"/>
       <c r="X18" s="88"/>
     </row>
-    <row r="19" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="319"/>
-      <c r="B19" s="320"/>
-      <c r="C19" s="320"/>
-      <c r="D19" s="320"/>
-      <c r="E19" s="320"/>
-      <c r="F19" s="320"/>
-      <c r="G19" s="320"/>
-      <c r="H19" s="320"/>
-      <c r="I19" s="320"/>
-      <c r="J19" s="320"/>
-      <c r="K19" s="320"/>
-      <c r="L19" s="320"/>
-      <c r="M19" s="320"/>
-      <c r="N19" s="320"/>
+    <row r="19" spans="1:24" ht="21" customHeight="1" thickBot="1">
+      <c r="A19" s="329"/>
+      <c r="B19" s="330"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="330"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="330"/>
+      <c r="I19" s="330"/>
+      <c r="J19" s="330"/>
+      <c r="K19" s="330"/>
+      <c r="L19" s="330"/>
+      <c r="M19" s="330"/>
+      <c r="N19" s="330"/>
       <c r="O19" s="89"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -6638,13 +6668,13 @@
       <c r="W19" s="12"/>
       <c r="X19" s="88"/>
     </row>
-    <row r="20" spans="1:24" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="310" t="s">
+    <row r="20" spans="1:24" ht="31.9" customHeight="1" thickBot="1">
+      <c r="A20" s="320" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="311"/>
-      <c r="C20" s="311"/>
-      <c r="D20" s="312"/>
+      <c r="B20" s="321"/>
+      <c r="C20" s="321"/>
+      <c r="D20" s="322"/>
       <c r="E20" s="1" t="s">
         <v>236</v>
       </c>
@@ -6668,18 +6698,18 @@
       <c r="W20" s="12"/>
       <c r="X20" s="88"/>
     </row>
-    <row r="21" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="304" t="s">
+    <row r="21" spans="1:24" ht="21" customHeight="1" thickBot="1">
+      <c r="A21" s="314" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="305"/>
-      <c r="C21" s="306"/>
+      <c r="B21" s="315"/>
+      <c r="C21" s="316"/>
       <c r="D21" s="52">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E21" s="29">
         <f>(D21/12)*365</f>
-        <v>182.5</v>
+        <v>365</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -6701,18 +6731,18 @@
       <c r="W21" s="12"/>
       <c r="X21" s="88"/>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="304" t="s">
+    <row r="22" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A22" s="314" t="s">
         <v>239</v>
       </c>
-      <c r="B22" s="305"/>
-      <c r="C22" s="306"/>
+      <c r="B22" s="315"/>
+      <c r="C22" s="316"/>
       <c r="D22" s="53">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E22" s="29">
         <f>(D22/12)*365</f>
-        <v>182.5</v>
+        <v>365</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -6734,18 +6764,18 @@
       <c r="W22" s="12"/>
       <c r="X22" s="88"/>
     </row>
-    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="304" t="s">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A23" s="314" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="305"/>
-      <c r="C23" s="306"/>
+      <c r="B23" s="315"/>
+      <c r="C23" s="316"/>
       <c r="D23" s="53">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E23" s="29">
         <f>(D23/12)*365</f>
-        <v>30.416666666666664</v>
+        <v>365</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -6767,12 +6797,12 @@
       <c r="W23" s="12"/>
       <c r="X23" s="88"/>
     </row>
-    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="307" t="s">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A24" s="317" t="s">
         <v>237</v>
       </c>
-      <c r="B24" s="308"/>
-      <c r="C24" s="309"/>
+      <c r="B24" s="318"/>
+      <c r="C24" s="319"/>
       <c r="D24" s="54">
         <v>12</v>
       </c>
@@ -6800,7 +6830,7 @@
       <c r="W24" s="12"/>
       <c r="X24" s="88"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -6821,7 +6851,7 @@
       <c r="W25" s="12"/>
       <c r="X25" s="88"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="14.45" customHeight="1">
       <c r="A26" s="89"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -6847,7 +6877,7 @@
       <c r="W26" s="12"/>
       <c r="X26" s="88"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="14.45" customHeight="1" thickBot="1">
       <c r="A27" s="94"/>
       <c r="B27" s="95"/>
       <c r="C27" s="95"/>
@@ -6873,7 +6903,7 @@
       <c r="W27" s="95"/>
       <c r="X27" s="96"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24">
       <c r="A28" s="86"/>
       <c r="B28" s="86"/>
       <c r="C28" s="86"/>
@@ -6892,7 +6922,7 @@
       <c r="P28" s="86"/>
       <c r="Q28" s="86"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24">
       <c r="A29" s="86"/>
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
@@ -6911,7 +6941,7 @@
       <c r="P29" s="86"/>
       <c r="Q29" s="86"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24">
       <c r="F30" s="86"/>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
@@ -6925,7 +6955,7 @@
       <c r="P30" s="86"/>
       <c r="Q30" s="86"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24">
       <c r="F31" s="86"/>
       <c r="G31" s="86"/>
       <c r="H31" s="86"/>
@@ -6939,7 +6969,7 @@
       <c r="P31" s="86"/>
       <c r="Q31" s="86"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24">
       <c r="F32" s="86"/>
       <c r="G32" s="86"/>
       <c r="H32" s="86"/>
@@ -6953,22 +6983,22 @@
       <c r="P32" s="86"/>
       <c r="Q32" s="86"/>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8">
       <c r="G33" s="86"/>
       <c r="H33" s="86"/>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8">
       <c r="E34" s="86"/>
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8">
       <c r="E35" s="86"/>
       <c r="G35" s="86"/>
       <c r="H35" s="86"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yR+Gge9TyqJLyKBt1smIOIYpEcqs2/GFZ51sT056VcW4Mu46isNf+qVFWOwpxd5JQ9KN7Gav3SHg9yXRjuTcRA==" saltValue="i2teVnYcogzYHyrdQDOLjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dQ/7Tdau7KLoVRdbnGeu0aZI1/Kw2xmKYnpOt9ZTT6Pj/zRfQNWg7Mp/3hIr+FFHX8SoHuahO6hXoGFaE4vTtA==" saltValue="4tt4TDAmzBzxdtkTJwCiQg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="16">
     <mergeCell ref="A1:N5"/>
     <mergeCell ref="O1:X5"/>
@@ -7004,6 +7034,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7016,23 +7047,23 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="58.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="30" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="19.109375" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.109375" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="24.44140625" style="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="30" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="3" max="3" width="20.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="19.140625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.140625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="24.42578125" style="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="99"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -7044,7 +7075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
@@ -7056,7 +7087,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
@@ -7069,7 +7100,7 @@
       <c r="J3" s="37"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="16" t="s">
         <v>36</v>
       </c>
@@ -7087,7 +7118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="61" t="s">
         <v>38</v>
       </c>
@@ -7106,7 +7137,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="61" t="s">
         <v>39</v>
       </c>
@@ -7125,7 +7156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="61" t="s">
         <v>40</v>
       </c>
@@ -7143,7 +7174,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="61" t="s">
         <v>41</v>
       </c>
@@ -7159,7 +7190,7 @@
       <c r="I8" s="38"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="61" t="s">
         <v>42</v>
       </c>
@@ -7174,7 +7205,7 @@
       <c r="I9" s="38"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="61" t="s">
         <v>43</v>
       </c>
@@ -7187,7 +7218,7 @@
       <c r="I10" s="38"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="61" t="s">
         <v>44</v>
       </c>
@@ -7200,7 +7231,7 @@
       <c r="I11" s="38"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="61" t="s">
         <v>45</v>
       </c>
@@ -7210,18 +7241,18 @@
       <c r="C12" s="103"/>
       <c r="G12" s="79"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="61" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="64">
         <f>'Final sizing'!P3/'Final sizing'!O3</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="103"/>
       <c r="G13" s="79"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="65" t="s">
         <v>47</v>
       </c>
@@ -7231,7 +7262,7 @@
       <c r="C14" s="103"/>
       <c r="G14" s="79"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="102"/>
       <c r="B15" s="103"/>
       <c r="C15" s="103"/>
@@ -7240,7 +7271,7 @@
       </c>
       <c r="G15" s="80"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="102"/>
       <c r="B16" s="103"/>
       <c r="C16" s="103"/>
@@ -7250,7 +7281,7 @@
       </c>
       <c r="G16" s="259"/>
     </row>
-    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="60">
       <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
@@ -7273,7 +7304,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="61" t="s">
         <v>51</v>
       </c>
@@ -7282,11 +7313,11 @@
       </c>
       <c r="C18" s="75">
         <f>((E18*D18)*2)/1024/1024</f>
-        <v>4614.2578125</v>
+        <v>9228.515625</v>
       </c>
       <c r="D18" s="67">
         <f>(60/$B$14)*24*B18*$B$6*$B$13</f>
-        <v>172800000</v>
+        <v>345600000</v>
       </c>
       <c r="E18" s="34">
         <v>14</v>
@@ -7298,7 +7329,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="61" t="s">
         <v>52</v>
       </c>
@@ -7307,11 +7338,11 @@
       </c>
       <c r="C19" s="75">
         <f>(E19*D19+F19*D19)/1024/1024</f>
-        <v>21291.50390625</v>
+        <v>42583.0078125</v>
       </c>
       <c r="D19" s="67">
         <f>$B$6*$B$7*$B$8*$B$9*$B$13*B19*24</f>
-        <v>172800000</v>
+        <v>345600000</v>
       </c>
       <c r="E19" s="34">
         <v>62</v>
@@ -7324,7 +7355,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
@@ -7333,11 +7364,11 @@
       </c>
       <c r="C20" s="75">
         <f>(E20*D20+F20*D20)/1024/1024</f>
-        <v>5850.2197265625</v>
+        <v>11700.439453125</v>
       </c>
       <c r="D20" s="67">
         <f>$B$6*$B$7*$B$8*$B$9*$B$10*$B$13*B20</f>
-        <v>43200000</v>
+        <v>86400000</v>
       </c>
       <c r="E20" s="34">
         <v>72</v>
@@ -7350,7 +7381,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
@@ -7376,7 +7407,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
@@ -7394,7 +7425,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="70" t="s">
         <v>56</v>
       </c>
@@ -7421,7 +7452,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="71" t="s">
         <v>57</v>
       </c>
@@ -7448,7 +7479,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="71" t="s">
         <v>58</v>
       </c>
@@ -7475,7 +7506,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" hidden="1" thickBot="1">
       <c r="A26" s="71" t="s">
         <v>59</v>
       </c>
@@ -7502,27 +7533,27 @@
       <c r="H26" s="33"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="74">
         <f>SUM(C18:C22)</f>
-        <v>36678.133318501132</v>
+        <v>68434.114763813632</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="104"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="102"/>
       <c r="B28" s="103"/>
       <c r="C28" s="103"/>
       <c r="G28" s="104"/>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
       <c r="A29" s="108"/>
       <c r="B29" s="109"/>
       <c r="C29" s="109"/>
@@ -7531,7 +7562,7 @@
       <c r="F29" s="98"/>
       <c r="G29" s="107"/>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33">
         <v>500</v>
       </c>
@@ -7543,7 +7574,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34">
         <v>2000</v>
       </c>
@@ -7555,7 +7586,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1">
       <c r="A35">
         <v>10000</v>
       </c>
@@ -7567,7 +7598,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1">
       <c r="A36">
         <v>20000</v>
       </c>
@@ -7579,7 +7610,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1">
       <c r="A37">
         <v>50000</v>
       </c>
@@ -7591,7 +7622,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38">
         <v>100000</v>
       </c>
@@ -7603,25 +7634,25 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1"/>
+    <row r="43" spans="1:3" hidden="1">
       <c r="A43" s="8">
         <v>500</v>
       </c>
@@ -7633,7 +7664,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44" s="8">
         <v>2000</v>
       </c>
@@ -7645,7 +7676,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1">
       <c r="A45" s="8">
         <v>10000</v>
       </c>
@@ -7657,7 +7688,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1">
       <c r="A46" s="8">
         <v>20000</v>
       </c>
@@ -7669,7 +7700,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1">
       <c r="A47" s="8">
         <v>50000</v>
       </c>
@@ -7681,7 +7712,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="15.75" hidden="1" thickBot="1">
       <c r="A48" s="10">
         <v>100000</v>
       </c>
@@ -7693,18 +7724,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="3:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="3:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" hidden="1"/>
+    <row r="50" spans="3:3" hidden="1">
       <c r="C50" s="57">
         <f>+AVERAGEA(C43:C48)</f>
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
-    <row r="51" spans="3:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="3:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="3:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="3:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="3:3" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="3:3" hidden="1"/>
+    <row r="52" spans="3:3" hidden="1"/>
+    <row r="53" spans="3:3" hidden="1"/>
+    <row r="54" spans="3:3" hidden="1"/>
+    <row r="55" spans="3:3" hidden="1"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="JXunIUWlS4UM2BeKoYbEpd0ZYJPZ/TkT0n3fQROpwQnI6bO7TzFqkvwHXCdX9yWx6Z92C/Iu0dZ7PJyo4zLamQ==" saltValue="e+xzy5vnNoFByG4c3f9fWQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -7723,15 +7754,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
+                <xdr:colOff>361950</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1280160</xdr:colOff>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>129540</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7750,59 +7781,59 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" customWidth="1"/>
-    <col min="11" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" customWidth="1"/>
-    <col min="16" max="17" width="10.6640625" customWidth="1"/>
-    <col min="18" max="18" width="19.44140625" customWidth="1"/>
-    <col min="19" max="19" width="21.6640625" customWidth="1"/>
-    <col min="20" max="21" width="22.109375" customWidth="1"/>
-    <col min="22" max="22" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="21" width="22.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="319" t="s">
+    <row r="1" spans="1:21" ht="20.25" hidden="1">
+      <c r="A1" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="320"/>
-      <c r="H1" s="320"/>
-      <c r="I1" s="320"/>
-      <c r="J1" s="320"/>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
-      <c r="N1" s="320"/>
-      <c r="O1" s="320"/>
-      <c r="P1" s="320"/>
-      <c r="Q1" s="320"/>
-      <c r="R1" s="320"/>
-      <c r="S1" s="320"/>
-      <c r="T1" s="320"/>
-      <c r="U1" s="320"/>
-    </row>
-    <row r="2" spans="1:21" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330"/>
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="330"/>
+      <c r="P1" s="330"/>
+      <c r="Q1" s="330"/>
+      <c r="R1" s="330"/>
+      <c r="S1" s="330"/>
+      <c r="T1" s="330"/>
+      <c r="U1" s="330"/>
+    </row>
+    <row r="2" spans="1:21" ht="40.5" hidden="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -7853,7 +7884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" hidden="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7890,7 +7921,7 @@
       </c>
       <c r="P3" s="8">
         <f>IF(Architecture!E7&gt;0,Architecture!E7,Architecture!D7)</f>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="188">
@@ -7907,7 +7938,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" hidden="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7939,7 +7970,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" hidden="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7967,7 +7998,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" hidden="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -7995,7 +8026,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" hidden="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -8015,7 +8046,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="284"/>
     </row>
-    <row r="8" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -8035,11 +8066,11 @@
       <c r="H8" s="11"/>
       <c r="I8" s="284"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" hidden="1"/>
+    <row r="10" spans="1:21" hidden="1">
       <c r="A10" s="5"/>
     </row>
-    <row r="12" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="13.9" customHeight="1">
       <c r="A12" s="5"/>
       <c r="C12" s="86"/>
       <c r="D12" s="86"/>
@@ -8050,7 +8081,7 @@
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" s="5"/>
       <c r="C13" s="86"/>
       <c r="D13" s="86"/>
@@ -8061,60 +8092,61 @@
       <c r="K13" s="86"/>
       <c r="L13" s="86"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="321" t="s">
+    <row r="15" spans="1:21" ht="14.45" customHeight="1">
+      <c r="A15" s="331" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="322"/>
-      <c r="C15" s="322"/>
-      <c r="D15" s="322"/>
-      <c r="E15" s="322"/>
-      <c r="F15" s="322"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="322"/>
-      <c r="J15" s="322"/>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
-      <c r="M15" s="322"/>
-      <c r="N15" s="322"/>
-      <c r="O15" s="322"/>
-      <c r="P15" s="322"/>
-      <c r="Q15" s="322"/>
-      <c r="R15" s="322"/>
-      <c r="S15" s="323"/>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="325"/>
-      <c r="B16" s="326"/>
-      <c r="C16" s="326"/>
-      <c r="D16" s="326"/>
-      <c r="E16" s="326"/>
-      <c r="F16" s="326"/>
-      <c r="G16" s="326"/>
-      <c r="H16" s="326"/>
-      <c r="I16" s="326"/>
-      <c r="J16" s="326"/>
-      <c r="K16" s="326"/>
-      <c r="L16" s="326"/>
-      <c r="M16" s="326"/>
-      <c r="N16" s="326"/>
-      <c r="O16" s="326"/>
-      <c r="P16" s="326"/>
-      <c r="Q16" s="326"/>
-      <c r="R16" s="326"/>
-      <c r="S16" s="327"/>
-    </row>
-    <row r="17" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="346" t="str">
+      <c r="B15" s="332"/>
+      <c r="C15" s="332"/>
+      <c r="D15" s="332"/>
+      <c r="E15" s="332"/>
+      <c r="F15" s="332"/>
+      <c r="G15" s="332"/>
+      <c r="H15" s="332"/>
+      <c r="I15" s="332"/>
+      <c r="J15" s="332"/>
+      <c r="K15" s="332"/>
+      <c r="L15" s="332"/>
+      <c r="M15" s="332"/>
+      <c r="N15" s="332"/>
+      <c r="O15" s="332"/>
+      <c r="P15" s="332"/>
+      <c r="Q15" s="332"/>
+      <c r="R15" s="332"/>
+      <c r="S15" s="333"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="335"/>
+      <c r="B16" s="336"/>
+      <c r="C16" s="336"/>
+      <c r="D16" s="336"/>
+      <c r="E16" s="336"/>
+      <c r="F16" s="336"/>
+      <c r="G16" s="336"/>
+      <c r="H16" s="336"/>
+      <c r="I16" s="336"/>
+      <c r="J16" s="336"/>
+      <c r="K16" s="336"/>
+      <c r="L16" s="336"/>
+      <c r="M16" s="336"/>
+      <c r="N16" s="336"/>
+      <c r="O16" s="336"/>
+      <c r="P16" s="336"/>
+      <c r="Q16" s="336"/>
+      <c r="R16" s="336"/>
+      <c r="S16" s="337"/>
+    </row>
+    <row r="17" spans="1:25" ht="29.25" thickBot="1">
+      <c r="A17" s="356" t="str">
         <f xml:space="preserve"> "Architecture "&amp;VLOOKUP("X",Architecture!L7:M12,2)</f>
-        <v>Architecture High Availibility  5 servers</v>
+        <v>Architecture Distributed
+(1 central + X pollers)</v>
       </c>
       <c r="B17" s="279"/>
-      <c r="C17" s="338" t="s">
+      <c r="C17" s="348" t="s">
         <v>276</v>
       </c>
       <c r="D17" s="198" t="s">
@@ -8122,7 +8154,7 @@
       </c>
       <c r="E17" s="199" t="str">
         <f>IF(Architecture!L11="X","",IF(Architecture!L7="X","",IF(Architecture!L8="X","","X")))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F17" s="199" t="str">
         <f>IF(Architecture!B11="X","X","")</f>
@@ -8130,79 +8162,79 @@
       </c>
       <c r="G17" s="200" t="str">
         <f>IF(Architecture!B12="X","X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H17" s="12"/>
-      <c r="J17" s="342" t="str">
+      <c r="J17" s="352" t="str">
         <f>IF(Architecture!I11="X","X","")</f>
-        <v>X</v>
-      </c>
-      <c r="K17" s="343"/>
+        <v/>
+      </c>
+      <c r="K17" s="353"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="342" t="str">
+      <c r="N17" s="352" t="str">
         <f>IF(Architecture!I10="X","X","")</f>
-        <v>X</v>
-      </c>
-      <c r="O17" s="343"/>
+        <v/>
+      </c>
+      <c r="O17" s="353"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="342" t="str">
+      <c r="R17" s="352" t="str">
         <f>IF(Architecture!L11="X","X",IF(Architecture!L12="X","X",""))</f>
-        <v>X</v>
-      </c>
-      <c r="S17" s="343"/>
-    </row>
-    <row r="18" spans="1:25" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="347"/>
+        <v/>
+      </c>
+      <c r="S17" s="353"/>
+    </row>
+    <row r="18" spans="1:25" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A18" s="357"/>
       <c r="B18" s="280"/>
-      <c r="C18" s="339"/>
-      <c r="D18" s="336" t="str">
+      <c r="C18" s="349"/>
+      <c r="D18" s="346" t="str">
         <f>IF(Architecture!L11="X","2 Servers central",IF(Architecture!L12="X","2 Servers central","1 Server central"))</f>
-        <v>2 Servers central</v>
-      </c>
-      <c r="E18" s="336" t="str">
+        <v>1 Server central</v>
+      </c>
+      <c r="E18" s="346" t="str">
         <f>"Database server "&amp;IF(OR(Architecture!L7="X",Architecture!L8="X",Architecture!L11="X")=TRUE,"inside the central GB","remoted GB")</f>
-        <v>Database server remoted GB</v>
-      </c>
-      <c r="F18" s="336" t="str">
+        <v>Database server inside the central GB</v>
+      </c>
+      <c r="F18" s="346" t="str">
         <f>IF(Architecture!D11&gt;0,Architecture!D11&amp;" Poller(s)",Architecture!C11&amp;" Poller(s)")</f>
-        <v>1 Poller(s)</v>
-      </c>
-      <c r="G18" s="344" t="str">
+        <v>2 Poller(s)</v>
+      </c>
+      <c r="G18" s="354" t="str">
         <f>IF(Architecture!D12&gt;0,Architecture!D12,Architecture!C12)&amp;" Remote Server"</f>
-        <v>1 Remote Server</v>
+        <v>0 Remote Server</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="340" t="str">
+      <c r="J18" s="350" t="str">
         <f>IF(OR(Architecture!I11="X",Architecture!I7="X"),IF(Architecture!E48="X","2","1")&amp;" Server Centreon MAP"," Server Centreon MAP")</f>
-        <v>1 Server Centreon MAP</v>
-      </c>
-      <c r="K18" s="341"/>
+        <v xml:space="preserve"> Server Centreon MAP</v>
+      </c>
+      <c r="K18" s="351"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="340" t="s">
+      <c r="N18" s="350" t="s">
         <v>254</v>
       </c>
-      <c r="O18" s="341"/>
+      <c r="O18" s="351"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="340" t="s">
+      <c r="R18" s="350" t="s">
         <v>255</v>
       </c>
-      <c r="S18" s="341"/>
+      <c r="S18" s="351"/>
       <c r="Y18" s="28"/>
     </row>
-    <row r="19" spans="1:25" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="347"/>
+    <row r="19" spans="1:25" ht="32.450000000000003" customHeight="1" thickBot="1">
+      <c r="A19" s="357"/>
       <c r="B19" s="280"/>
       <c r="C19" s="246" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="337"/>
-      <c r="E19" s="337"/>
-      <c r="F19" s="337"/>
-      <c r="G19" s="345"/>
+      <c r="D19" s="347"/>
+      <c r="E19" s="347"/>
+      <c r="F19" s="347"/>
+      <c r="G19" s="355"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="230" t="s">
@@ -8222,8 +8254,8 @@
       </c>
       <c r="S19" s="193"/>
     </row>
-    <row r="20" spans="1:25" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="347"/>
+    <row r="20" spans="1:25" ht="37.9" customHeight="1">
+      <c r="A20" s="357"/>
       <c r="B20" s="280"/>
       <c r="C20" s="271" t="s">
         <v>6</v>
@@ -8234,7 +8266,7 @@
       </c>
       <c r="E20" s="232" t="str">
         <f>IF(E17="X",D20,"X")</f>
-        <v>4vCPU</v>
+        <v>X</v>
       </c>
       <c r="F20" s="232" t="str">
         <f>IF(F17="X",IF((Architecture!C11+Architecture!D11)&gt;0,IF(Architecture!C15&lt;=K3,"2vCPU",IF(AND(Architecture!C15&gt;=K3,Architecture!C15&lt;=K4),"4vCPU","Consulter Centreon")),"X"),"X")</f>
@@ -8242,7 +8274,7 @@
       </c>
       <c r="G20" s="233" t="str">
         <f>IF(G17="X",IF(R3&lt;=D3,"1vCPU",IF(AND(R3&gt;C4,R3&lt;=D4),"2vCPU",IF(AND(R3&gt;C5,R3&lt;=D5),"4vCPU",IF(R3&gt;C6,"4vCPU","Consulter Centreon")))),"X")</f>
-        <v>4vCPU</v>
+        <v>X</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -8251,7 +8283,7 @@
       </c>
       <c r="K20" s="194" t="str">
         <f>IF(J17="X",IF(O3&lt;M3,"2vCPU",IF(AND(O3&gt;M3,O3&lt;M6),"4vCPU",'AVV config'!H5)),"X")</f>
-        <v>Contact Centreon</v>
+        <v>X</v>
       </c>
       <c r="L20" s="285"/>
       <c r="M20" s="12"/>
@@ -8260,7 +8292,7 @@
       </c>
       <c r="O20" s="194" t="str">
         <f>IF(N17="X",IF(O3&lt;N3,"2vCPU",IF(AND(O3&gt;=N3,O3&lt;N4),"4vCPU",IF(AND(O3&gt;=N4,O3&lt;N5),"4vCPU",IF(AND(O3&gt;=N5,O3&lt;N6),"8vCPU",'AVV config'!K5)))),"X")</f>
-        <v>4vCPU</v>
+        <v>X</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -8269,11 +8301,11 @@
       </c>
       <c r="S20" s="194" t="str">
         <f>IF(R17="X","1vCPU","X")</f>
-        <v>1vCPU</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="347"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="27" thickBot="1">
+      <c r="A21" s="357"/>
       <c r="B21" s="280"/>
       <c r="C21" s="84" t="s">
         <v>253</v>
@@ -8284,7 +8316,7 @@
       </c>
       <c r="E21" s="234" t="str">
         <f>IF(E17="X",D21,"X")</f>
-        <v>8</v>
+        <v>X</v>
       </c>
       <c r="F21" s="234" t="str">
         <f>IF(F17="X",IF((Architecture!C11+Architecture!D11)&gt;0,IF(Architecture!C15&lt;=K3,"2",IF(AND(Architecture!C15&gt;=K3,Architecture!C15&lt;=K4),"4","Consulter Centreon")),"X"),"X")</f>
@@ -8292,7 +8324,7 @@
       </c>
       <c r="G21" s="233" t="str">
         <f>IF(G17="X",IF(R3&lt;=D3,"1",IF(AND(R3&gt;D3,R3&lt;=D4),"2",IF(AND(R3&gt;D4,R3&lt;=D5),"4",IF(AND(R3&gt;D5,R3&lt;=D8),"8","Consulter Centreon")))),"X")</f>
-        <v>4</v>
+        <v>X</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -8301,7 +8333,7 @@
       </c>
       <c r="K21" s="195" t="str">
         <f>IF(J17="X",IF(O3&lt;M4,"2",IF(AND(O3&gt;M3,O3&lt;M4),"4",IF(AND(O3&gt;M4,O3&lt;M5),"8",IF(AND(O3&gt;M5,O3&lt;M6),"16",'AVV config'!H6)))),"X")</f>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L21" s="285"/>
       <c r="M21" s="12"/>
@@ -8310,20 +8342,20 @@
       </c>
       <c r="O21" s="194" t="str">
         <f>IF(N17="X",IF(O3&lt;N3,"12",IF(AND(O3&gt;=N3,O3&lt;N4),"16",IF(AND(O3&gt;=N4,O3&lt;N5),"24",IF(AND(O3&gt;=N5,O3&lt;N6),"32",'AVV config'!K6)))),"X")</f>
-        <v>16</v>
+        <v>X</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="260" t="s">
         <v>253</v>
       </c>
-      <c r="S21" s="194">
+      <c r="S21" s="194" t="str">
         <f>IF(R17="X",1,"X")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="347"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="27" thickBot="1">
+      <c r="A22" s="357"/>
       <c r="B22" s="280"/>
       <c r="C22" s="246" t="s">
         <v>251</v>
@@ -8365,8 +8397,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="347"/>
+    <row r="23" spans="1:25" ht="27" thickBot="1">
+      <c r="A23" s="357"/>
       <c r="B23" s="280"/>
       <c r="C23" s="281" t="s">
         <v>175</v>
@@ -8375,49 +8407,49 @@
         <f>IF(D17="X",1,"X")</f>
         <v>1</v>
       </c>
-      <c r="E23" s="232">
+      <c r="E23" s="232" t="str">
         <f>IF(E17="X",1,"X")</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F23" s="232">
         <f>IF(F17="X",1,"X")</f>
         <v>1</v>
       </c>
-      <c r="G23" s="233">
+      <c r="G23" s="233" t="str">
         <f>IF(G17="X",1,"X")</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="K23" s="195">
+      <c r="K23" s="195" t="str">
         <f>IF(J17="X",1,"X")</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="261" t="s">
         <v>175</v>
       </c>
-      <c r="O23" s="194">
+      <c r="O23" s="194" t="str">
         <f>IF(N17="X",1,"X")</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="261" t="s">
         <v>175</v>
       </c>
-      <c r="S23" s="194">
+      <c r="S23" s="194" t="str">
         <f>IF(R17="X",1,"X")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="348"/>
-      <c r="B24" s="332" t="s">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="32.450000000000003" customHeight="1">
+      <c r="A24" s="358"/>
+      <c r="B24" s="342" t="s">
         <v>280</v>
       </c>
       <c r="C24" s="282" t="s">
@@ -8426,55 +8458,55 @@
       <c r="D24" s="235">
         <v>20</v>
       </c>
-      <c r="E24" s="234">
+      <c r="E24" s="234" t="str">
         <f>IF(E17="X",20,"X")</f>
-        <v>20</v>
+        <v>X</v>
       </c>
       <c r="F24" s="234">
         <f>IF(F17="X",IF((Architecture!C11+Architecture!D11)&gt;0,20,"X"),"X")</f>
         <v>20</v>
       </c>
-      <c r="G24" s="233">
+      <c r="G24" s="233" t="str">
         <f>IF(G17="X",D24,"X")</f>
-        <v>20</v>
+        <v>X</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="335" t="s">
+      <c r="I24" s="345" t="s">
         <v>282</v>
       </c>
       <c r="J24" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="K24" s="194">
+      <c r="K24" s="194" t="str">
         <f>IF(J17="X",20,"X")</f>
-        <v>20</v>
+        <v>X</v>
       </c>
       <c r="L24" s="285"/>
-      <c r="M24" s="335" t="s">
+      <c r="M24" s="345" t="s">
         <v>282</v>
       </c>
       <c r="N24" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="O24" s="194">
+      <c r="O24" s="194" t="str">
         <f>IF(N17="X",20,"X")</f>
-        <v>20</v>
+        <v>X</v>
       </c>
       <c r="P24" s="12"/>
-      <c r="Q24" s="332" t="s">
+      <c r="Q24" s="342" t="s">
         <v>282</v>
       </c>
       <c r="R24" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="S24" s="194">
+      <c r="S24" s="194" t="str">
         <f>IF(R17="X",10,"X")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="348"/>
-      <c r="B25" s="333"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="29.45" customHeight="1">
+      <c r="A25" s="358"/>
+      <c r="B25" s="343"/>
       <c r="C25" s="283" t="s">
         <v>4</v>
       </c>
@@ -8482,9 +8514,9 @@
         <f>IF(D21="Consulter Centreon",D21,1*D21)</f>
         <v>8</v>
       </c>
-      <c r="E25" s="234">
+      <c r="E25" s="234" t="str">
         <f>IF(E21="Consulter Centreon",E21,IF(E17="X",1*E21,"X"))</f>
-        <v>8</v>
+        <v>X</v>
       </c>
       <c r="F25" s="234">
         <f>IF(F17="X",IF((Architecture!C11+Architecture!D11)&gt;0,1*F21,"X"),"X")</f>
@@ -8492,88 +8524,88 @@
       </c>
       <c r="G25" s="233" t="str">
         <f>IF(G17="X",G21,"X")</f>
-        <v>4</v>
+        <v>X</v>
       </c>
       <c r="H25" s="12"/>
-      <c r="I25" s="333"/>
+      <c r="I25" s="343"/>
       <c r="J25" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="194">
+      <c r="K25" s="194" t="str">
         <f>IF(J17="X",IF(K21&gt;=8,8,K21),"X")</f>
-        <v>8</v>
+        <v>X</v>
       </c>
       <c r="L25" s="285"/>
-      <c r="M25" s="333"/>
+      <c r="M25" s="343"/>
       <c r="N25" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="O25" s="194">
+      <c r="O25" s="194" t="str">
         <f>IF(N17="X",IF(O21&gt;=8,8,O21),"X")</f>
-        <v>8</v>
+        <v>X</v>
       </c>
       <c r="P25" s="12"/>
-      <c r="Q25" s="333"/>
+      <c r="Q25" s="343"/>
       <c r="R25" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="S25" s="194">
+      <c r="S25" s="194" t="str">
         <f>IF(R17="X",6,"X")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="348"/>
-      <c r="B26" s="334"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="34.5" thickBot="1">
+      <c r="A26" s="358"/>
+      <c r="B26" s="344"/>
       <c r="C26" s="282" t="s">
         <v>246</v>
       </c>
       <c r="D26" s="235">
         <v>10</v>
       </c>
-      <c r="E26" s="234">
+      <c r="E26" s="234" t="str">
         <f>IF(E17="X",10,"X")</f>
-        <v>10</v>
+        <v>X</v>
       </c>
       <c r="F26" s="234">
         <f>IF(F17="X",IF((Architecture!C11+Architecture!D11)&gt;0,10,"X"),"X")</f>
         <v>10</v>
       </c>
-      <c r="G26" s="233">
+      <c r="G26" s="233" t="str">
         <f>IF(G17="X",10,"X")</f>
-        <v>10</v>
+        <v>X</v>
       </c>
       <c r="H26" s="12"/>
-      <c r="I26" s="334"/>
+      <c r="I26" s="344"/>
       <c r="J26" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="194">
+      <c r="K26" s="194" t="str">
         <f>IF(J17="X",10,"X")</f>
-        <v>10</v>
+        <v>X</v>
       </c>
       <c r="L26" s="285"/>
-      <c r="M26" s="334"/>
+      <c r="M26" s="344"/>
       <c r="N26" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="O26" s="194">
+      <c r="O26" s="194" t="str">
         <f>IF(N17="X",10,"X")</f>
-        <v>10</v>
+        <v>X</v>
       </c>
       <c r="P26" s="12"/>
-      <c r="Q26" s="334"/>
+      <c r="Q26" s="344"/>
       <c r="R26" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="S26" s="194">
+      <c r="S26" s="194" t="str">
         <f>IF(R17="X",10,"X")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="347"/>
-      <c r="B27" s="335" t="s">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="70.150000000000006" customHeight="1" thickBot="1">
+      <c r="A27" s="357"/>
+      <c r="B27" s="345" t="s">
         <v>281</v>
       </c>
       <c r="C27" s="271" t="s">
@@ -8581,35 +8613,35 @@
       </c>
       <c r="D27" s="235">
         <f>IF(D17="X",IF(O3&lt;=D3,G3,IF(AND(O3&gt;C4,O3&lt;=D4),G4,'Main server and BI server'!H70)),"X")</f>
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="E27" s="236"/>
       <c r="F27" s="236"/>
-      <c r="G27" s="237">
+      <c r="G27" s="237" t="str">
         <f>IF(G17="X",IF(R3&lt;=D3,G3,IF(AND(R3&gt;C4,R3&lt;=D4),G4,'RS Main server and BI server '!H70)),"X")</f>
-        <v>2.25</v>
+        <v>X</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="I27" s="335" t="s">
+      <c r="I27" s="345" t="s">
         <v>281</v>
       </c>
       <c r="J27" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="194">
+      <c r="K27" s="194" t="str">
         <f>IF(J17="X",5,"X")</f>
-        <v>5</v>
+        <v>X</v>
       </c>
       <c r="L27" s="285"/>
-      <c r="M27" s="335" t="s">
+      <c r="M27" s="345" t="s">
         <v>281</v>
       </c>
       <c r="N27" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="203">
+      <c r="O27" s="203" t="str">
         <f>IF(N17="X",ROUNDUP('MBI Sizing'!C27,0)/1024,"X")</f>
-        <v>35.8193359375</v>
+        <v>X</v>
       </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="246" t="s">
@@ -8617,12 +8649,12 @@
       </c>
       <c r="S27" s="244">
         <f>SUM(S23:S26)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="347"/>
-      <c r="B28" s="333"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="34.5" thickBot="1">
+      <c r="A28" s="357"/>
+      <c r="B28" s="343"/>
       <c r="C28" s="85" t="s">
         <v>247</v>
       </c>
@@ -8631,12 +8663,12 @@
       </c>
       <c r="E28" s="236"/>
       <c r="F28" s="236"/>
-      <c r="G28" s="272">
+      <c r="G28" s="272" t="str">
         <f>IF(G17="X",5,"X")</f>
-        <v>5</v>
+        <v>X</v>
       </c>
       <c r="H28" s="12"/>
-      <c r="I28" s="334"/>
+      <c r="I28" s="344"/>
       <c r="J28" s="85" t="s">
         <v>260</v>
       </c>
@@ -8644,22 +8676,22 @@
         <v>2</v>
       </c>
       <c r="L28" s="12"/>
-      <c r="M28" s="333"/>
+      <c r="M28" s="343"/>
       <c r="N28" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="O28" s="194">
+      <c r="O28" s="194" t="str">
         <f>IF(N17="X",'AVV config'!C7,"X")</f>
-        <v>10</v>
+        <v>X</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="88"/>
     </row>
-    <row r="29" spans="1:25" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="347"/>
-      <c r="B29" s="333"/>
+    <row r="29" spans="1:25" ht="34.5" thickBot="1">
+      <c r="A29" s="357"/>
+      <c r="B29" s="343"/>
       <c r="C29" s="85" t="s">
         <v>277</v>
       </c>
@@ -8671,9 +8703,9 @@
         <f>IF(F17="X",IF((Architecture!C11+Architecture!D11)&gt;0,5,"X"),"X")</f>
         <v>5</v>
       </c>
-      <c r="G29" s="272">
+      <c r="G29" s="272" t="str">
         <f>IF(G17="X",5,"X")</f>
-        <v>5</v>
+        <v>X</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -8682,10 +8714,10 @@
       </c>
       <c r="K29" s="247">
         <f>+SUM(K23:K28)</f>
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="L29" s="12"/>
-      <c r="M29" s="334"/>
+      <c r="M29" s="344"/>
       <c r="N29" s="85" t="s">
         <v>260</v>
       </c>
@@ -8697,24 +8729,24 @@
       <c r="R29" s="12"/>
       <c r="S29" s="88"/>
     </row>
-    <row r="30" spans="1:25" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="347"/>
-      <c r="B30" s="333"/>
+    <row r="30" spans="1:25" ht="25.9" customHeight="1" thickBot="1">
+      <c r="A30" s="357"/>
+      <c r="B30" s="343"/>
       <c r="C30" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="235" t="str">
+      <c r="D30" s="235">
         <f>IF(E17="X","X",IF(O3&lt;=D3,F3,IF(AND(O3&gt;C4,O3&lt;=D4),F4,'Main server and BI server'!H77)))</f>
+        <v>213.12336729999998</v>
+      </c>
+      <c r="E30" s="235" t="str">
+        <f>IF(E17="X",IF(O3&lt;=D3,F3,IF(AND(O3&gt;C4,O3&lt;=D4),F4,'Main server and BI server'!H77)),"X")</f>
         <v>X</v>
       </c>
-      <c r="E30" s="235">
-        <f>IF(E17="X",IF(O3&lt;=D3,F3,IF(AND(O3&gt;C4,O3&lt;=D4),F4,'Main server and BI server'!H77)),"X")</f>
-        <v>107.17894727500001</v>
-      </c>
       <c r="F30" s="236"/>
-      <c r="G30" s="273">
+      <c r="G30" s="273" t="str">
         <f>IF(G17="X",IF(R3&lt;=D3,F3,IF(AND(R3&gt;C4,R3&lt;=D4),F4,'RS Main server and BI server '!H77)),"X")</f>
-        <v>9.4496336083333325</v>
+        <v>X</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -8723,7 +8755,7 @@
       </c>
       <c r="K30" s="248">
         <f>IF(Architecture!C48="X",K29,IF(Architecture!C48="0",K29,IF(Architecture!E48="X",K29*Architecture!C48,K29)))</f>
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
@@ -8732,32 +8764,32 @@
       </c>
       <c r="O30" s="244">
         <f>SUM(O23:O29)</f>
-        <v>89.8193359375</v>
+        <v>5</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="88"/>
     </row>
-    <row r="31" spans="1:25" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="347"/>
-      <c r="B31" s="333"/>
+    <row r="31" spans="1:25" ht="26.45" customHeight="1" thickBot="1">
+      <c r="A31" s="357"/>
+      <c r="B31" s="343"/>
       <c r="C31" s="84" t="str">
         <f>IF(E17="X","/var/backup","/var/cache/centreon/backup")</f>
-        <v>/var/backup</v>
-      </c>
-      <c r="D31" s="235" t="str">
+        <v>/var/cache/centreon/backup</v>
+      </c>
+      <c r="D31" s="235">
         <f>IF(E17="X","X",'AVV config'!C7)</f>
+        <v>10</v>
+      </c>
+      <c r="E31" s="235" t="str">
+        <f>IF(E17="X",10,"X")</f>
         <v>X</v>
       </c>
-      <c r="E31" s="235">
-        <f>IF(E17="X",10,"X")</f>
-        <v>10</v>
-      </c>
       <c r="F31" s="236"/>
-      <c r="G31" s="273">
+      <c r="G31" s="273" t="str">
         <f>IF(G17="X",'AVV config'!C7,"X")</f>
-        <v>10</v>
+        <v>X</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -8772,29 +8804,29 @@
       <c r="R31" s="12"/>
       <c r="S31" s="88"/>
     </row>
-    <row r="32" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="347"/>
-      <c r="B32" s="334"/>
+    <row r="32" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A32" s="357"/>
+      <c r="B32" s="344"/>
       <c r="C32" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="238" t="str">
+      <c r="D32" s="238">
         <f>IF(E17="X","X",'AVV config'!C11)</f>
+        <v>5</v>
+      </c>
+      <c r="E32" s="238" t="str">
+        <f>IF(E17="X",'AVV config'!C11,"X")</f>
         <v>X</v>
-      </c>
-      <c r="E32" s="238">
-        <f>IF(E17="X",'AVV config'!C11,"X")</f>
-        <v>5</v>
       </c>
       <c r="F32" s="239"/>
       <c r="G32" s="240"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="350" t="str">
+      <c r="J32" s="360" t="str">
         <f>IF(J17="X","In MAP, to show a large number of services, it is necessary to ask for the Centreon expertise","X")</f>
-        <v>In MAP, to show a large number of services, it is necessary to ask for the Centreon expertise</v>
-      </c>
-      <c r="K32" s="351"/>
+        <v>X</v>
+      </c>
+      <c r="K32" s="361"/>
       <c r="L32" s="90"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -8804,19 +8836,19 @@
       <c r="R32" s="12"/>
       <c r="S32" s="88"/>
     </row>
-    <row r="33" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="347"/>
+    <row r="33" spans="1:19" ht="18" customHeight="1" thickBot="1">
+      <c r="A33" s="357"/>
       <c r="B33" s="287"/>
       <c r="C33" s="249" t="s">
         <v>248</v>
       </c>
       <c r="D33" s="241">
         <f>SUM(D23:D32)</f>
-        <v>62.5</v>
+        <v>304.12336729999998</v>
       </c>
       <c r="E33" s="241">
         <f>SUM(E23:E32)</f>
-        <v>161.17894727500001</v>
+        <v>0</v>
       </c>
       <c r="F33" s="241">
         <f>SUM(F23:F26,F29)</f>
@@ -8824,12 +8856,12 @@
       </c>
       <c r="G33" s="242">
         <f>SUM(G23:G31)</f>
-        <v>62.699633608333329</v>
+        <v>0</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="352"/>
-      <c r="K33" s="353"/>
+      <c r="J33" s="362"/>
+      <c r="K33" s="363"/>
       <c r="L33" s="90"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -8839,32 +8871,32 @@
       <c r="R33" s="12"/>
       <c r="S33" s="88"/>
     </row>
-    <row r="34" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="349"/>
+    <row r="34" spans="1:19" ht="18" customHeight="1" thickBot="1">
+      <c r="A34" s="359"/>
       <c r="B34" s="288"/>
       <c r="C34" s="246" t="s">
         <v>249</v>
       </c>
       <c r="D34" s="243">
         <f>IF(Architecture!L11="X",D33*2,IF(Architecture!L12="X",D33*2,D33))</f>
-        <v>125</v>
+        <v>304.12336729999998</v>
       </c>
       <c r="E34" s="243">
         <f>IF(Architecture!L10="X",E33*2,IF(Architecture!L12="X",E33*2,E33))</f>
-        <v>322.35789455000003</v>
+        <v>0</v>
       </c>
       <c r="F34" s="243">
         <f>IF(Architecture!D11&gt;0,Architecture!D11*F33,Architecture!C11*F33)</f>
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G34" s="244">
         <f>IF(Architecture!B12="X",IF(Architecture!D12&gt;0,Architecture!D12*G33,Architecture!C12*G33),0)</f>
-        <v>62.699633608333329</v>
+        <v>0</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="352"/>
-      <c r="K34" s="353"/>
+      <c r="J34" s="362"/>
+      <c r="K34" s="363"/>
       <c r="L34" s="90"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -8874,7 +8906,7 @@
       <c r="R34" s="12"/>
       <c r="S34" s="88"/>
     </row>
-    <row r="35" spans="1:19" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" ht="53.25" customHeight="1" thickBot="1">
       <c r="A35" s="89"/>
       <c r="B35" s="12"/>
       <c r="C35" s="245"/>
@@ -8884,8 +8916,8 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="354"/>
-      <c r="K35" s="355"/>
+      <c r="J35" s="364"/>
+      <c r="K35" s="365"/>
       <c r="L35" s="90"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -8895,7 +8927,7 @@
       <c r="R35" s="12"/>
       <c r="S35" s="88"/>
     </row>
-    <row r="36" spans="1:19" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="42.75" thickBot="1">
       <c r="A36" s="94"/>
       <c r="B36" s="95"/>
       <c r="C36" s="95"/>
@@ -8914,14 +8946,14 @@
       </c>
       <c r="O36" s="197">
         <f>SUM(D34,E34,F34,G34,K30,O30,S27)</f>
-        <v>710.8768640958333</v>
+        <v>387.12336729999998</v>
       </c>
       <c r="P36" s="95"/>
       <c r="Q36" s="95"/>
       <c r="R36" s="95"/>
       <c r="S36" s="96"/>
     </row>
-    <row r="59" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="18:18">
       <c r="R59" t="s">
         <v>270</v>
       </c>
@@ -9149,34 +9181,34 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="321" t="s">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A1" s="331" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="323"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="319"/>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="324"/>
-    </row>
-    <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="333"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.6" customHeight="1" thickBot="1">
+      <c r="A2" s="329"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="334"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>262</v>
       </c>
@@ -9187,7 +9219,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="88"/>
     </row>
-    <row r="4" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="19" t="s">
         <v>263</v>
       </c>
@@ -9198,7 +9230,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="88"/>
     </row>
-    <row r="5" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="19" t="s">
         <v>264</v>
       </c>
@@ -9207,28 +9239,28 @@
       <c r="D5" s="12"/>
       <c r="E5" s="88"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="5"/>
       <c r="D6" s="12"/>
       <c r="E6" s="88"/>
     </row>
-    <row r="7" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="330" t="s">
+    <row r="7" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A7" s="340" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="430"/>
-      <c r="C7" s="430"/>
-      <c r="D7" s="431"/>
+      <c r="B7" s="366"/>
+      <c r="C7" s="366"/>
+      <c r="D7" s="367"/>
       <c r="E7" s="274" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="358" t="s">
+    <row r="8" spans="1:5" ht="29.45" customHeight="1">
+      <c r="A8" s="373" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="359"/>
-      <c r="C8" s="426"/>
+      <c r="B8" s="374"/>
+      <c r="C8" s="375"/>
       <c r="D8" s="52">
         <v>6</v>
       </c>
@@ -9237,12 +9269,12 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="427" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="368" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="428"/>
-      <c r="C9" s="429"/>
+      <c r="B9" s="369"/>
+      <c r="C9" s="370"/>
       <c r="D9" s="53">
         <v>6</v>
       </c>
@@ -9251,12 +9283,12 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="358" t="s">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A10" s="373" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="359"/>
-      <c r="C10" s="426"/>
+      <c r="B10" s="374"/>
+      <c r="C10" s="375"/>
       <c r="D10" s="53">
         <v>1</v>
       </c>
@@ -9265,12 +9297,12 @@
         <v>30.416666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="360" t="s">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A11" s="376" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="361"/>
-      <c r="C11" s="425"/>
+      <c r="B11" s="377"/>
+      <c r="C11" s="378"/>
       <c r="D11" s="54">
         <v>12</v>
       </c>
@@ -9279,11 +9311,11 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="5"/>
       <c r="E12" s="88"/>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="191" t="s">
         <v>230</v>
       </c>
@@ -9298,7 +9330,7 @@
       </c>
       <c r="E13" s="88"/>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="227" t="s">
         <v>266</v>
       </c>
@@ -9312,7 +9344,7 @@
       <c r="D14" s="187"/>
       <c r="E14" s="88"/>
     </row>
-    <row r="15" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="227" t="s">
         <v>267</v>
       </c>
@@ -9321,85 +9353,85 @@
       <c r="D15" s="228"/>
       <c r="E15" s="88"/>
     </row>
-    <row r="16" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="364" t="str">
+    <row r="16" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A16" s="382" t="str">
         <f>IF(B15="X", "Total (Poller+Remote)","Total Poller")</f>
         <v>Total Poller</v>
       </c>
-      <c r="B16" s="365"/>
-      <c r="C16" s="356">
+      <c r="B16" s="383"/>
+      <c r="C16" s="371">
         <f>IF(B15="X",IF(D14="",C14+1,D14+1),IF(D14="",C14,D14))</f>
         <v>2</v>
       </c>
-      <c r="D16" s="357"/>
+      <c r="D16" s="372"/>
       <c r="E16" s="88"/>
     </row>
-    <row r="17" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="366" t="s">
+    <row r="17" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A17" s="384" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="367"/>
-      <c r="C17" s="315">
+      <c r="B17" s="385"/>
+      <c r="C17" s="325">
         <f>IF(B15="X",B4/(C16),B4/(C16))</f>
         <v>5000</v>
       </c>
-      <c r="D17" s="316"/>
+      <c r="D17" s="326"/>
       <c r="E17" s="88"/>
     </row>
-    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="366" t="s">
+    <row r="18" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A18" s="384" t="s">
         <v>269</v>
       </c>
-      <c r="B18" s="368"/>
-      <c r="C18" s="362">
+      <c r="B18" s="386"/>
+      <c r="C18" s="379">
         <f>B4</f>
         <v>10000</v>
       </c>
-      <c r="D18" s="316"/>
+      <c r="D18" s="326"/>
       <c r="E18" s="88"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="89"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="88"/>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="89"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="88"/>
     </row>
-    <row r="21" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A21" s="89"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="369" t="str">
+      <c r="C21" s="387" t="str">
         <f>1&amp;" Remote Server"</f>
         <v>1 Remote Server</v>
       </c>
-      <c r="D21" s="369" t="str">
+      <c r="D21" s="387" t="str">
         <f>IF(D14&gt;0,D14&amp;" Poller(s)",C14&amp;" Poller(s)")</f>
         <v>2 Poller(s)</v>
       </c>
       <c r="E21" s="88"/>
     </row>
-    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" thickBot="1">
       <c r="A22" s="89"/>
       <c r="B22" s="263" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="370"/>
-      <c r="D22" s="370"/>
+      <c r="C22" s="388"/>
+      <c r="D22" s="388"/>
       <c r="E22" s="88"/>
     </row>
-    <row r="23" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="41.45" customHeight="1">
       <c r="A23" s="89"/>
       <c r="B23" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="435" t="str">
+      <c r="C23" s="292" t="str">
         <f>IF(C18&lt;='Final sizing'!D3,"1vCPU",IF(AND(C18&gt;'Final sizing'!C4,C18&lt;='Final sizing'!D4),"2vCPU",IF(AND(C18&gt;'Final sizing'!C5,C18&lt;='Final sizing'!D5),"4vCPU",IF(C18&gt;'Final sizing'!C6,"4vCPU","Consulter Centreon"))))</f>
         <v>4vCPU</v>
       </c>
@@ -9409,12 +9441,12 @@
       </c>
       <c r="E23" s="88"/>
     </row>
-    <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
       <c r="A24" s="89"/>
       <c r="B24" s="268" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="435" t="str">
+      <c r="C24" s="292" t="str">
         <f>IF(C18&lt;='Final sizing'!D3,"1",IF(AND(C18&gt;'Final sizing'!D3,C18&lt;='Final sizing'!D4),"2",IF(AND(C18&gt;'Final sizing'!D4,C18&lt;='Final sizing'!D5),"4",IF(AND(C18&gt;'Final sizing'!D5,C18&lt;='Final sizing'!D8),"8","Consulter Centreon"))))</f>
         <v>8</v>
       </c>
@@ -9424,7 +9456,7 @@
       </c>
       <c r="E24" s="88"/>
     </row>
-    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5" thickBot="1">
       <c r="A25" s="89"/>
       <c r="B25" s="263" t="s">
         <v>251</v>
@@ -9437,12 +9469,12 @@
       </c>
       <c r="E25" s="88"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="89"/>
       <c r="B26" s="269" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="436">
+      <c r="C26" s="293">
         <f>1</f>
         <v>1</v>
       </c>
@@ -9452,14 +9484,14 @@
       </c>
       <c r="E26" s="88"/>
     </row>
-    <row r="27" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="332" t="s">
+    <row r="27" spans="1:5" ht="33.75">
+      <c r="A27" s="342" t="s">
         <v>280</v>
       </c>
       <c r="B27" s="269" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="435">
+      <c r="C27" s="292">
         <v>20</v>
       </c>
       <c r="D27" s="195">
@@ -9468,12 +9500,12 @@
       </c>
       <c r="E27" s="88"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="333"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="343"/>
       <c r="B28" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="435" t="str">
+      <c r="C28" s="292" t="str">
         <f>C24</f>
         <v>8</v>
       </c>
@@ -9483,12 +9515,12 @@
       </c>
       <c r="E28" s="88"/>
     </row>
-    <row r="29" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="334"/>
+    <row r="29" spans="1:5" ht="34.5" thickBot="1">
+      <c r="A29" s="344"/>
       <c r="B29" s="269" t="s">
         <v>273</v>
       </c>
-      <c r="C29" s="435">
+      <c r="C29" s="292">
         <v>10</v>
       </c>
       <c r="D29" s="195">
@@ -9497,26 +9529,26 @@
       </c>
       <c r="E29" s="88"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="335" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="345" t="s">
         <v>281</v>
       </c>
       <c r="B30" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="437">
+      <c r="C30" s="294">
         <f>IF(C18&lt;='Final sizing'!D3,'Final sizing'!G3,IF(AND(C18&gt;'Final sizing'!C4,C18&lt;='Final sizing'!D4),'Final sizing'!G4,'RS so Main server and BI serve'!H70))</f>
         <v>13.5</v>
       </c>
-      <c r="D30" s="438"/>
+      <c r="D30" s="295"/>
       <c r="E30" s="88"/>
     </row>
-    <row r="31" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="333"/>
+    <row r="31" spans="1:5" ht="48.75">
+      <c r="A31" s="343"/>
       <c r="B31" s="269" t="s">
         <v>247</v>
       </c>
-      <c r="C31" s="435">
+      <c r="C31" s="292">
         <v>5</v>
       </c>
       <c r="D31" s="195">
@@ -9525,12 +9557,12 @@
       </c>
       <c r="E31" s="88"/>
     </row>
-    <row r="32" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="333"/>
+    <row r="32" spans="1:5" ht="48.75">
+      <c r="A32" s="343"/>
       <c r="B32" s="269" t="s">
         <v>277</v>
       </c>
-      <c r="C32" s="435">
+      <c r="C32" s="292">
         <v>5</v>
       </c>
       <c r="D32" s="195">
@@ -9539,49 +9571,49 @@
       </c>
       <c r="E32" s="88"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="333"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="343"/>
       <c r="B33" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="437">
+      <c r="C33" s="294">
         <f>IF(C18&lt;='Final sizing'!D3,'Final sizing'!G3,IF(AND(C18&gt;'Final sizing'!C4,C18&lt;='Final sizing'!D4),'Final sizing'!G4,'RS so Main server and BI serve'!H77))</f>
-        <v>105.774019775</v>
-      </c>
-      <c r="D33" s="438"/>
+        <v>106.54423730000001</v>
+      </c>
+      <c r="D33" s="295"/>
       <c r="E33" s="88"/>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="333"/>
+    <row r="34" spans="1:5" ht="30">
+      <c r="A34" s="343"/>
       <c r="B34" s="269" t="s">
         <v>283</v>
       </c>
-      <c r="C34" s="442">
+      <c r="C34" s="298">
         <f>'AVV config'!C7</f>
         <v>10</v>
       </c>
-      <c r="D34" s="438"/>
+      <c r="D34" s="295"/>
       <c r="E34" s="88"/>
     </row>
-    <row r="35" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="334"/>
+    <row r="35" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A35" s="344"/>
       <c r="B35" s="269" t="s">
         <v>260</v>
       </c>
-      <c r="C35" s="439">
+      <c r="C35" s="296">
         <v>5</v>
       </c>
-      <c r="D35" s="440"/>
+      <c r="D35" s="297"/>
       <c r="E35" s="88"/>
     </row>
-    <row r="36" spans="1:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="32.25" thickBot="1">
       <c r="A36" s="5"/>
       <c r="B36" s="264" t="s">
         <v>248</v>
       </c>
       <c r="C36" s="231">
         <f>SUM(C26:C35)</f>
-        <v>175.274019775</v>
+        <v>176.04423730000002</v>
       </c>
       <c r="D36" s="278">
         <f>SUM(D26:D29,D31)</f>
@@ -9589,16 +9621,16 @@
       </c>
       <c r="E36" s="88"/>
     </row>
-    <row r="37" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="434"/>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A37" s="291"/>
       <c r="B37" s="263" t="s">
         <v>249</v>
       </c>
-      <c r="C37" s="363">
+      <c r="C37" s="380">
         <f>SUM(C36)+IF(D14="",SUM(D26:D29,D31)*C14,SUM(D26:D29,D31)*D14)</f>
-        <v>247.274019775</v>
-      </c>
-      <c r="D37" s="441"/>
+        <v>248.04423730000002</v>
+      </c>
+      <c r="D37" s="381"/>
       <c r="E37" s="96"/>
     </row>
   </sheetData>
@@ -9712,86 +9744,86 @@
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="113" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="113" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="113" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="113" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="113" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="113" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="113" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="113" customWidth="1"/>
     <col min="8" max="8" width="24" style="113" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="113" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="113" customWidth="1"/>
     <col min="10" max="10" width="29" style="113" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" style="113" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="113"/>
+    <col min="11" max="11" width="22.85546875" style="113" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="113"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="404" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1">
+      <c r="A1" s="422" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="405" t="s">
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="423" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="405"/>
-      <c r="G1" s="405"/>
+      <c r="F1" s="423"/>
+      <c r="G1" s="423"/>
       <c r="H1" s="112"/>
       <c r="M1" s="114" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" s="116" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="406" t="s">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:18" s="116" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="424" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="407"/>
-      <c r="C3" s="407"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="407"/>
-      <c r="F3" s="407" t="s">
+      <c r="B3" s="425"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="408"/>
+      <c r="G3" s="426"/>
       <c r="H3" s="115"/>
     </row>
-    <row r="4" spans="1:18" s="116" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="409" t="s">
+    <row r="4" spans="1:18" s="116" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A4" s="427" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="410"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="411"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="428"/>
+      <c r="E4" s="428"/>
+      <c r="F4" s="428"/>
+      <c r="G4" s="429"/>
       <c r="H4" s="117"/>
     </row>
-    <row r="5" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:18" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="374" t="s">
+    <row r="5" spans="1:18" ht="13.5" thickBot="1"/>
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A6" s="392" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="118"/>
-      <c r="C6" s="412" t="s">
+      <c r="C6" s="430" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="412"/>
-      <c r="E6" s="412"/>
-      <c r="F6" s="412"/>
-      <c r="G6" s="413"/>
+      <c r="D6" s="430"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="431"/>
       <c r="H6" s="119"/>
       <c r="I6" s="120"/>
       <c r="J6" s="120"/>
       <c r="K6" s="120"/>
     </row>
-    <row r="7" spans="1:18" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A7" s="372"/>
+    <row r="7" spans="1:18" ht="38.25">
+      <c r="A7" s="390"/>
       <c r="B7" s="121"/>
       <c r="C7" s="122" t="s">
         <v>166</v>
@@ -9821,8 +9853,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="372"/>
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="390"/>
       <c r="B8" s="121"/>
       <c r="C8" s="126" t="s">
         <v>157</v>
@@ -9859,8 +9891,8 @@
       </c>
       <c r="R8" s="132"/>
     </row>
-    <row r="9" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="372"/>
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="390"/>
       <c r="B9" s="121"/>
       <c r="C9" s="126" t="s">
         <v>156</v>
@@ -9896,8 +9928,8 @@
       </c>
       <c r="R9" s="132"/>
     </row>
-    <row r="10" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="372"/>
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="390"/>
       <c r="B10" s="121"/>
       <c r="C10" s="126" t="s">
         <v>155</v>
@@ -9933,8 +9965,8 @@
       </c>
       <c r="R10" s="132"/>
     </row>
-    <row r="11" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="372"/>
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="390"/>
       <c r="B11" s="121"/>
       <c r="C11" s="126" t="s">
         <v>154</v>
@@ -9970,8 +10002,8 @@
       </c>
       <c r="R11" s="132"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="372"/>
+    <row r="12" spans="1:18" ht="15">
+      <c r="A12" s="390"/>
       <c r="B12" s="121"/>
       <c r="C12" s="126" t="s">
         <v>153</v>
@@ -10007,8 +10039,8 @@
       </c>
       <c r="R12" s="132"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="372"/>
+    <row r="13" spans="1:18" ht="15">
+      <c r="A13" s="390"/>
       <c r="B13" s="121"/>
       <c r="C13" s="126" t="s">
         <v>152</v>
@@ -10044,8 +10076,8 @@
       </c>
       <c r="R13" s="132"/>
     </row>
-    <row r="14" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="372"/>
+    <row r="14" spans="1:18" ht="15">
+      <c r="A14" s="390"/>
       <c r="B14" s="121"/>
       <c r="C14" s="126" t="s">
         <v>151</v>
@@ -10081,8 +10113,8 @@
       </c>
       <c r="R14" s="132"/>
     </row>
-    <row r="15" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="372"/>
+    <row r="15" spans="1:18" ht="15">
+      <c r="A15" s="390"/>
       <c r="B15" s="121"/>
       <c r="C15" s="126" t="s">
         <v>150</v>
@@ -10118,8 +10150,8 @@
       </c>
       <c r="R15" s="132"/>
     </row>
-    <row r="16" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="372"/>
+    <row r="16" spans="1:18" ht="15">
+      <c r="A16" s="390"/>
       <c r="B16" s="121"/>
       <c r="C16" s="126" t="s">
         <v>149</v>
@@ -10155,8 +10187,8 @@
       </c>
       <c r="R16" s="132"/>
     </row>
-    <row r="17" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="372"/>
+    <row r="17" spans="1:18" ht="15">
+      <c r="A17" s="390"/>
       <c r="B17" s="121"/>
       <c r="C17" s="126" t="s">
         <v>148</v>
@@ -10192,8 +10224,8 @@
       </c>
       <c r="R17" s="132"/>
     </row>
-    <row r="18" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="372"/>
+    <row r="18" spans="1:18" ht="15">
+      <c r="A18" s="390"/>
       <c r="B18" s="121"/>
       <c r="C18" s="126" t="s">
         <v>147</v>
@@ -10229,8 +10261,8 @@
       </c>
       <c r="R18" s="132"/>
     </row>
-    <row r="19" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="372"/>
+    <row r="19" spans="1:18" ht="15">
+      <c r="A19" s="390"/>
       <c r="B19" s="121"/>
       <c r="C19" s="126" t="s">
         <v>146</v>
@@ -10266,8 +10298,8 @@
       </c>
       <c r="R19" s="132"/>
     </row>
-    <row r="20" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="372"/>
+    <row r="20" spans="1:18" ht="15">
+      <c r="A20" s="390"/>
       <c r="B20" s="121"/>
       <c r="C20" s="126" t="s">
         <v>145</v>
@@ -10303,8 +10335,8 @@
       </c>
       <c r="R20" s="132"/>
     </row>
-    <row r="21" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="372"/>
+    <row r="21" spans="1:18" ht="15">
+      <c r="A21" s="390"/>
       <c r="B21" s="121"/>
       <c r="C21" s="126" t="s">
         <v>144</v>
@@ -10340,8 +10372,8 @@
       </c>
       <c r="R21" s="132"/>
     </row>
-    <row r="22" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="372"/>
+    <row r="22" spans="1:18" ht="15">
+      <c r="A22" s="390"/>
       <c r="B22" s="121"/>
       <c r="C22" s="134" t="s">
         <v>143</v>
@@ -10377,8 +10409,8 @@
       </c>
       <c r="R22" s="135"/>
     </row>
-    <row r="23" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="372"/>
+    <row r="23" spans="1:18" ht="15">
+      <c r="A23" s="390"/>
       <c r="B23" s="121"/>
       <c r="C23" s="126" t="s">
         <v>142</v>
@@ -10414,8 +10446,8 @@
       </c>
       <c r="R23" s="132"/>
     </row>
-    <row r="24" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="372"/>
+    <row r="24" spans="1:18" ht="15">
+      <c r="A24" s="390"/>
       <c r="B24" s="121"/>
       <c r="C24" s="126" t="s">
         <v>141</v>
@@ -10451,8 +10483,8 @@
       </c>
       <c r="R24" s="132"/>
     </row>
-    <row r="25" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="372"/>
+    <row r="25" spans="1:18" ht="15">
+      <c r="A25" s="390"/>
       <c r="B25" s="121"/>
       <c r="C25" s="126" t="s">
         <v>140</v>
@@ -10488,8 +10520,8 @@
       </c>
       <c r="R25" s="132"/>
     </row>
-    <row r="26" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="372"/>
+    <row r="26" spans="1:18" ht="15">
+      <c r="A26" s="390"/>
       <c r="B26" s="121"/>
       <c r="C26" s="126" t="s">
         <v>139</v>
@@ -10525,8 +10557,8 @@
       </c>
       <c r="R26" s="132"/>
     </row>
-    <row r="27" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="372"/>
+    <row r="27" spans="1:18" ht="15">
+      <c r="A27" s="390"/>
       <c r="B27" s="121"/>
       <c r="C27" s="126" t="s">
         <v>138</v>
@@ -10562,8 +10594,8 @@
       </c>
       <c r="R27" s="132"/>
     </row>
-    <row r="28" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="372"/>
+    <row r="28" spans="1:18" ht="15">
+      <c r="A28" s="390"/>
       <c r="B28" s="121"/>
       <c r="C28" s="126" t="s">
         <v>137</v>
@@ -10599,8 +10631,8 @@
       </c>
       <c r="R28" s="132"/>
     </row>
-    <row r="29" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="372"/>
+    <row r="29" spans="1:18" ht="15">
+      <c r="A29" s="390"/>
       <c r="B29" s="121"/>
       <c r="C29" s="126" t="s">
         <v>136</v>
@@ -10636,8 +10668,8 @@
       </c>
       <c r="R29" s="132"/>
     </row>
-    <row r="30" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="372"/>
+    <row r="30" spans="1:18" ht="15">
+      <c r="A30" s="390"/>
       <c r="B30" s="121"/>
       <c r="C30" s="126" t="s">
         <v>135</v>
@@ -10673,8 +10705,8 @@
       </c>
       <c r="R30" s="132"/>
     </row>
-    <row r="31" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="372"/>
+    <row r="31" spans="1:18" ht="15">
+      <c r="A31" s="390"/>
       <c r="B31" s="121"/>
       <c r="C31" s="126"/>
       <c r="D31" s="133">
@@ -10707,8 +10739,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="372"/>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A32" s="390"/>
       <c r="B32" s="121"/>
       <c r="C32" s="134"/>
       <c r="D32" s="133">
@@ -10725,8 +10757,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="372"/>
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A33" s="390"/>
       <c r="B33" s="121"/>
       <c r="C33" s="136" t="s">
         <v>134</v>
@@ -10735,10 +10767,10 @@
         <f>'Poller Sizing'!B3</f>
         <v>0</v>
       </c>
-      <c r="E33" s="414">
-        <v>0</v>
-      </c>
-      <c r="F33" s="414"/>
+      <c r="E33" s="432">
+        <v>0</v>
+      </c>
+      <c r="F33" s="432"/>
       <c r="G33" s="137">
         <f>SUM(D8:D32)</f>
         <v>10000</v>
@@ -10747,38 +10779,38 @@
       <c r="J33" s="139"/>
       <c r="K33" s="139"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="372"/>
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A34" s="390"/>
       <c r="B34" s="121"/>
       <c r="C34" s="121"/>
       <c r="D34" s="140"/>
-      <c r="E34" s="415" t="s">
+      <c r="E34" s="433" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="415"/>
+      <c r="F34" s="433"/>
       <c r="G34" s="137">
         <f>SUM(G8:G32)</f>
         <v>20000</v>
       </c>
       <c r="H34" s="138"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="372"/>
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A35" s="390"/>
       <c r="B35" s="121"/>
       <c r="C35" s="121"/>
       <c r="D35" s="140"/>
-      <c r="E35" s="415" t="s">
+      <c r="E35" s="433" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="415"/>
+      <c r="F35" s="433"/>
       <c r="G35" s="137">
         <f>SUMIF(E8:E32,"&lt;&gt;0",D8:D32)</f>
         <v>10000</v>
       </c>
       <c r="H35" s="138"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="372"/>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="390"/>
       <c r="B36" s="121"/>
       <c r="C36" s="121"/>
       <c r="D36" s="121"/>
@@ -10786,35 +10818,35 @@
       <c r="F36" s="121"/>
       <c r="G36" s="141"/>
     </row>
-    <row r="37" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="372" t="s">
+    <row r="37" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A37" s="390" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="121"/>
       <c r="H37" s="142"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="372"/>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A38" s="390"/>
       <c r="B38" s="121"/>
       <c r="H38" s="143"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="372"/>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A39" s="390"/>
       <c r="B39" s="121"/>
       <c r="H39" s="143"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="372"/>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A40" s="390"/>
       <c r="B40" s="121"/>
       <c r="H40" s="143"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="372"/>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A41" s="390"/>
       <c r="B41" s="121"/>
       <c r="H41" s="143"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="372"/>
+    <row r="42" spans="1:13" ht="15" customHeight="1">
+      <c r="A42" s="390"/>
       <c r="B42" s="121"/>
       <c r="C42" s="144"/>
       <c r="D42" s="121"/>
@@ -10823,29 +10855,29 @@
       <c r="G42" s="146"/>
       <c r="H42" s="143"/>
     </row>
-    <row r="43" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="372"/>
+    <row r="43" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A43" s="390"/>
       <c r="B43" s="121"/>
-      <c r="C43" s="390" t="s">
+      <c r="C43" s="408" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="391"/>
-      <c r="E43" s="391"/>
-      <c r="F43" s="391"/>
+      <c r="D43" s="409"/>
+      <c r="E43" s="409"/>
+      <c r="F43" s="409"/>
       <c r="G43" s="147" t="s">
         <v>128</v>
       </c>
       <c r="H43" s="143"/>
     </row>
-    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="372"/>
+    <row r="44" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A44" s="390"/>
       <c r="B44" s="121"/>
-      <c r="C44" s="392" t="s">
+      <c r="C44" s="410" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="392"/>
-      <c r="E44" s="392"/>
-      <c r="F44" s="392"/>
+      <c r="D44" s="410"/>
+      <c r="E44" s="410"/>
+      <c r="F44" s="410"/>
       <c r="G44" s="148">
         <f>G33*0.05</f>
         <v>500</v>
@@ -10855,15 +10887,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="372"/>
+    <row r="45" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A45" s="390"/>
       <c r="B45" s="121"/>
-      <c r="C45" s="392" t="s">
+      <c r="C45" s="410" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="392"/>
-      <c r="E45" s="392"/>
-      <c r="F45" s="392"/>
+      <c r="D45" s="410"/>
+      <c r="E45" s="410"/>
+      <c r="F45" s="410"/>
       <c r="G45" s="148">
         <f>G33*0.02</f>
         <v>200</v>
@@ -10873,8 +10905,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="372"/>
+    <row r="46" spans="1:13" ht="15" customHeight="1">
+      <c r="A46" s="390"/>
       <c r="B46" s="121"/>
       <c r="C46" s="121"/>
       <c r="D46" s="121"/>
@@ -10882,26 +10914,26 @@
       <c r="F46" s="145"/>
       <c r="G46" s="141"/>
     </row>
-    <row r="47" spans="1:13" s="114" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="372"/>
-      <c r="C47" s="393" t="s">
+    <row r="47" spans="1:13" s="114" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A47" s="390"/>
+      <c r="C47" s="411" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="394"/>
-      <c r="E47" s="394"/>
-      <c r="F47" s="394"/>
+      <c r="D47" s="412"/>
+      <c r="E47" s="412"/>
+      <c r="F47" s="412"/>
       <c r="G47" s="149" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="372"/>
-      <c r="C48" s="395" t="s">
+    <row r="48" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="390"/>
+      <c r="C48" s="413" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="396"/>
-      <c r="E48" s="396"/>
-      <c r="F48" s="397"/>
+      <c r="D48" s="414"/>
+      <c r="E48" s="414"/>
+      <c r="F48" s="415"/>
       <c r="G48" s="150">
         <v>2</v>
       </c>
@@ -10909,14 +10941,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="372"/>
-      <c r="C49" s="395" t="s">
+    <row r="49" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="390"/>
+      <c r="C49" s="413" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="396"/>
-      <c r="E49" s="396"/>
-      <c r="F49" s="397"/>
+      <c r="D49" s="414"/>
+      <c r="E49" s="414"/>
+      <c r="F49" s="415"/>
       <c r="G49" s="150">
         <v>2</v>
       </c>
@@ -10924,14 +10956,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="372"/>
-      <c r="C50" s="395" t="s">
+    <row r="50" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="390"/>
+      <c r="C50" s="413" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="396"/>
-      <c r="E50" s="396"/>
-      <c r="F50" s="397"/>
+      <c r="D50" s="414"/>
+      <c r="E50" s="414"/>
+      <c r="F50" s="415"/>
       <c r="G50" s="150">
         <v>2</v>
       </c>
@@ -10939,14 +10971,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="372"/>
-      <c r="C51" s="395" t="s">
+    <row r="51" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="390"/>
+      <c r="C51" s="413" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="396"/>
-      <c r="E51" s="396"/>
-      <c r="F51" s="397"/>
+      <c r="D51" s="414"/>
+      <c r="E51" s="414"/>
+      <c r="F51" s="415"/>
       <c r="G51" s="150">
         <v>3</v>
       </c>
@@ -10954,73 +10986,73 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="372"/>
-      <c r="C52" s="395" t="s">
+    <row r="52" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A52" s="390"/>
+      <c r="C52" s="413" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="396"/>
-      <c r="E52" s="396"/>
-      <c r="F52" s="397"/>
+      <c r="D52" s="414"/>
+      <c r="E52" s="414"/>
+      <c r="F52" s="415"/>
       <c r="G52" s="151">
         <f>IFERROR((G44*30)/G33,0)</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="372"/>
-      <c r="C53" s="395" t="s">
+    <row r="53" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A53" s="390"/>
+      <c r="C53" s="413" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="396"/>
-      <c r="E53" s="396"/>
-      <c r="F53" s="397"/>
+      <c r="D53" s="414"/>
+      <c r="E53" s="414"/>
+      <c r="F53" s="415"/>
       <c r="G53" s="151">
         <f>IFERROR((G45*30)/D33,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="372"/>
-      <c r="C54" s="395" t="s">
+    <row r="54" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A54" s="390"/>
+      <c r="C54" s="413" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="396"/>
-      <c r="E54" s="396"/>
-      <c r="F54" s="397"/>
+      <c r="D54" s="414"/>
+      <c r="E54" s="414"/>
+      <c r="F54" s="415"/>
       <c r="G54" s="152">
         <f>IFERROR(AVERAGEIF(D8:D32,"&lt;&gt;0",E8:E32),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="372"/>
-      <c r="C55" s="395" t="s">
+    <row r="55" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="390"/>
+      <c r="C55" s="413" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="396"/>
-      <c r="E55" s="396"/>
-      <c r="F55" s="397"/>
+      <c r="D55" s="414"/>
+      <c r="E55" s="414"/>
+      <c r="F55" s="415"/>
       <c r="G55" s="152">
         <f>IFERROR(SUMPRODUCT(D8:D32,F8:F32)/G33,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="372"/>
+    <row r="56" spans="1:13" s="121" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="390"/>
       <c r="C56" s="153"/>
       <c r="D56" s="153"/>
       <c r="E56" s="153"/>
       <c r="F56" s="153"/>
       <c r="G56" s="154"/>
     </row>
-    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="372"/>
+    <row r="57" spans="1:13" ht="30">
+      <c r="A57" s="390"/>
       <c r="B57" s="121"/>
-      <c r="C57" s="400" t="s">
+      <c r="C57" s="418" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="401"/>
+      <c r="D57" s="419"/>
       <c r="E57" s="155" t="s">
         <v>121</v>
       </c>
@@ -11040,13 +11072,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="372"/>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A58" s="390"/>
       <c r="B58" s="121"/>
-      <c r="C58" s="402" t="s">
+      <c r="C58" s="420" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="403"/>
+      <c r="D58" s="421"/>
       <c r="E58" s="159" t="s">
         <v>115</v>
       </c>
@@ -11072,13 +11104,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="372"/>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A59" s="390"/>
       <c r="B59" s="121"/>
-      <c r="C59" s="402" t="s">
+      <c r="C59" s="420" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="403"/>
+      <c r="D59" s="421"/>
       <c r="E59" s="159" t="s">
         <v>117</v>
       </c>
@@ -11104,13 +11136,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="372"/>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A60" s="390"/>
       <c r="B60" s="121"/>
-      <c r="C60" s="402" t="s">
+      <c r="C60" s="420" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="403"/>
+      <c r="D60" s="421"/>
       <c r="E60" s="159" t="s">
         <v>115</v>
       </c>
@@ -11136,13 +11168,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="372"/>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A61" s="390"/>
       <c r="B61" s="121"/>
-      <c r="C61" s="398" t="s">
+      <c r="C61" s="416" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="399"/>
+      <c r="D61" s="417"/>
       <c r="E61" s="159" t="s">
         <v>117</v>
       </c>
@@ -11168,13 +11200,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="372"/>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A62" s="390"/>
       <c r="B62" s="121"/>
-      <c r="C62" s="402" t="s">
+      <c r="C62" s="420" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="403"/>
+      <c r="D62" s="421"/>
       <c r="E62" s="159" t="s">
         <v>113</v>
       </c>
@@ -11200,13 +11232,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="372"/>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A63" s="390"/>
       <c r="B63" s="121"/>
-      <c r="C63" s="402" t="s">
+      <c r="C63" s="420" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="403"/>
+      <c r="D63" s="421"/>
       <c r="E63" s="159" t="s">
         <v>113</v>
       </c>
@@ -11232,13 +11264,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="372"/>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A64" s="390"/>
       <c r="B64" s="121"/>
-      <c r="C64" s="398" t="s">
+      <c r="C64" s="416" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="399"/>
+      <c r="D64" s="417"/>
       <c r="E64" s="159" t="s">
         <v>116</v>
       </c>
@@ -11264,13 +11296,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="372"/>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A65" s="390"/>
       <c r="B65" s="121"/>
-      <c r="C65" s="398" t="s">
+      <c r="C65" s="416" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="399"/>
+      <c r="D65" s="417"/>
       <c r="E65" s="159" t="s">
         <v>115</v>
       </c>
@@ -11296,13 +11328,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="373"/>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A66" s="391"/>
       <c r="B66" s="164"/>
-      <c r="C66" s="371" t="s">
+      <c r="C66" s="389" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="371"/>
+      <c r="D66" s="389"/>
       <c r="E66" s="165" t="s">
         <v>113</v>
       </c>
@@ -11327,31 +11359,31 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
       <c r="C67" s="153"/>
       <c r="D67" s="153"/>
       <c r="E67" s="153"/>
       <c r="F67" s="153"/>
       <c r="G67" s="168"/>
     </row>
-    <row r="68" spans="1:13" s="114" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="114" customFormat="1" ht="15.75" thickBot="1">
       <c r="C68" s="169"/>
       <c r="D68" s="121"/>
       <c r="G68" s="170"/>
     </row>
-    <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="374" t="s">
+    <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1">
+      <c r="A69" s="392" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="118"/>
-      <c r="C69" s="375" t="s">
+      <c r="C69" s="393" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="376"/>
-      <c r="E69" s="376" t="s">
+      <c r="D69" s="394"/>
+      <c r="E69" s="394" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="376"/>
+      <c r="F69" s="394"/>
       <c r="G69" s="171" t="s">
         <v>108</v>
       </c>
@@ -11359,19 +11391,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="372"/>
+    <row r="70" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A70" s="390"/>
       <c r="B70" s="121"/>
-      <c r="C70" s="377" t="s">
+      <c r="C70" s="395" t="s">
         <v>106</v>
       </c>
       <c r="D70" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="379" t="s">
+      <c r="E70" s="397" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="380"/>
+      <c r="F70" s="398"/>
       <c r="G70" s="173">
         <f>(SUM(J8:J31))/1000/1000/1000</f>
         <v>9</v>
@@ -11381,95 +11413,95 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="372"/>
+    <row r="71" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A71" s="390"/>
       <c r="B71" s="121"/>
-      <c r="C71" s="378"/>
+      <c r="C71" s="396"/>
       <c r="D71" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="379" t="s">
+      <c r="E71" s="397" t="s">
         <v>102</v>
       </c>
-      <c r="F71" s="380"/>
+      <c r="F71" s="398"/>
       <c r="G71" s="173">
         <f>SUM(K8:K31)/1000/1000/1000</f>
         <v>4.5</v>
       </c>
       <c r="H71" s="174"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="372"/>
+    <row r="72" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A72" s="390"/>
       <c r="B72" s="121"/>
-      <c r="C72" s="377" t="s">
+      <c r="C72" s="395" t="s">
         <v>101</v>
       </c>
       <c r="D72" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="379" t="s">
+      <c r="E72" s="397" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="380"/>
+      <c r="F72" s="398"/>
       <c r="G72" s="173">
         <f>(SUM(H8:H31)*40)/1000/1000/1000</f>
         <v>42.048000000000002</v>
       </c>
       <c r="H72" s="174"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="372"/>
+    <row r="73" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A73" s="390"/>
       <c r="B73" s="121"/>
-      <c r="C73" s="381"/>
+      <c r="C73" s="399"/>
       <c r="D73" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="379" t="s">
+      <c r="E73" s="397" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="380"/>
+      <c r="F73" s="398"/>
       <c r="G73" s="173">
         <f>((D33+G33+6*(G44+G45)+10)*162*Architecture!E23)/1000/1000/1000</f>
-        <v>7.0019774999999992E-2</v>
+        <v>0.84023729999999996</v>
       </c>
       <c r="H73" s="174"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="372"/>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A74" s="390"/>
       <c r="B74" s="121"/>
-      <c r="C74" s="378"/>
+      <c r="C74" s="396"/>
       <c r="D74" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="382" t="s">
+      <c r="E74" s="400" t="s">
         <v>95</v>
       </c>
-      <c r="F74" s="379"/>
+      <c r="F74" s="397"/>
       <c r="G74" s="173">
         <f>G33*(Architecture!E24*160+D33*140)/1000/1000/1000</f>
         <v>0.58399999999999996</v>
       </c>
       <c r="H74" s="174"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="372"/>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A75" s="390"/>
       <c r="B75" s="121"/>
       <c r="C75" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="383" t="s">
+      <c r="D75" s="401" t="s">
         <v>93</v>
       </c>
-      <c r="E75" s="384"/>
-      <c r="F75" s="385"/>
+      <c r="E75" s="402"/>
+      <c r="F75" s="403"/>
       <c r="G75" s="173">
         <f>(G72)*1.5</f>
         <v>63.072000000000003</v>
       </c>
       <c r="H75" s="174"/>
     </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="372"/>
+    <row r="76" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A76" s="390"/>
       <c r="B76" s="121"/>
       <c r="C76" s="176"/>
       <c r="D76" s="121"/>
@@ -11477,29 +11509,29 @@
       <c r="F76" s="121"/>
       <c r="G76" s="141"/>
     </row>
-    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="372"/>
+    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A77" s="390"/>
       <c r="B77" s="121"/>
-      <c r="C77" s="386" t="s">
+      <c r="C77" s="404" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="387"/>
-      <c r="E77" s="387"/>
-      <c r="F77" s="387"/>
+      <c r="D77" s="405"/>
+      <c r="E77" s="405"/>
+      <c r="F77" s="405"/>
       <c r="G77" s="177">
         <f>SUM(G70:G75)</f>
-        <v>119.274019775</v>
+        <v>120.04423730000001</v>
       </c>
       <c r="H77" s="178">
         <f>IF(G77-G71-G70&lt;5,5,G77-G71-G70)</f>
-        <v>105.774019775</v>
+        <v>106.54423730000001</v>
       </c>
       <c r="J77" s="179" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="372"/>
+    <row r="78" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A78" s="390"/>
       <c r="B78" s="121"/>
       <c r="C78" s="176"/>
       <c r="D78" s="121"/>
@@ -11510,21 +11542,21 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="373"/>
+    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A79" s="391"/>
       <c r="B79" s="164"/>
-      <c r="C79" s="388" t="s">
+      <c r="C79" s="406" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="389"/>
-      <c r="E79" s="389"/>
-      <c r="F79" s="389"/>
+      <c r="D79" s="407"/>
+      <c r="E79" s="407"/>
+      <c r="F79" s="407"/>
       <c r="G79" s="181">
         <f>IFERROR(SUM(G58:G66)/1000,0)</f>
         <v>67.484830407714853</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="13.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:13" ht="13.5" thickTop="1"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DF1iALIbcG6jpF46xnoSqxRdntp2yDsFl4WgQk3vJZ97KNOhU6Wmmexva5Og/znQmvqYPkTnjWFHJqBSO4vz1g==" saltValue="0Y7tGHfco946F4hrozAbCw==" spinCount="100000" sheet="1"/>
   <mergeCells count="46">
@@ -11593,86 +11625,86 @@
       <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="113" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="113" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="113" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="113" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="113" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="113" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="113" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="113" customWidth="1"/>
     <col min="8" max="8" width="24" style="113" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="113" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="113" customWidth="1"/>
     <col min="10" max="10" width="29" style="113" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" style="113" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="113"/>
+    <col min="11" max="11" width="22.85546875" style="113" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="113"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="404" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1">
+      <c r="A1" s="422" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="405" t="s">
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="423" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="405"/>
-      <c r="G1" s="405"/>
+      <c r="F1" s="423"/>
+      <c r="G1" s="423"/>
       <c r="H1" s="112"/>
       <c r="M1" s="114" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" s="116" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="406" t="s">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:18" s="116" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="424" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="407"/>
-      <c r="C3" s="407"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="407"/>
-      <c r="F3" s="407" t="s">
+      <c r="B3" s="425"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="408"/>
+      <c r="G3" s="426"/>
       <c r="H3" s="115"/>
     </row>
-    <row r="4" spans="1:18" s="116" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="409" t="s">
+    <row r="4" spans="1:18" s="116" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A4" s="427" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="410"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="411"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="428"/>
+      <c r="E4" s="428"/>
+      <c r="F4" s="428"/>
+      <c r="G4" s="429"/>
       <c r="H4" s="117"/>
     </row>
-    <row r="5" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:18" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="374" t="s">
+    <row r="5" spans="1:18" ht="13.5" thickBot="1"/>
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A6" s="392" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="118"/>
-      <c r="C6" s="412" t="s">
+      <c r="C6" s="430" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="412"/>
-      <c r="E6" s="412"/>
-      <c r="F6" s="412"/>
-      <c r="G6" s="413"/>
+      <c r="D6" s="430"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="431"/>
       <c r="H6" s="119"/>
       <c r="I6" s="120"/>
       <c r="J6" s="120"/>
       <c r="K6" s="120"/>
     </row>
-    <row r="7" spans="1:18" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A7" s="372"/>
+    <row r="7" spans="1:18" ht="38.25">
+      <c r="A7" s="390"/>
       <c r="B7" s="121"/>
       <c r="C7" s="122" t="s">
         <v>166</v>
@@ -11702,8 +11734,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="372"/>
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="390"/>
       <c r="B8" s="121"/>
       <c r="C8" s="126" t="s">
         <v>157</v>
@@ -11724,7 +11756,7 @@
       </c>
       <c r="H8" s="129">
         <f>Architecture!$E$22*(86400/(F8*60))*G8</f>
-        <v>87600000</v>
+        <v>175200000</v>
       </c>
       <c r="I8" s="130">
         <f>((Architecture!$E$24*24*60)/F8)*D8</f>
@@ -11732,16 +11764,16 @@
       </c>
       <c r="J8" s="131">
         <f>((450000*5/F8)*G8)*(Architecture!$D$21/6)</f>
-        <v>750000000</v>
+        <v>1500000000</v>
       </c>
       <c r="K8" s="131">
         <f>IF(E8&lt;&gt;0,((450000*5/F8)*D8)*(Architecture!$D$21/6),0)</f>
-        <v>1500000000</v>
+        <v>3000000000</v>
       </c>
       <c r="R8" s="132"/>
     </row>
-    <row r="9" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="372"/>
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="390"/>
       <c r="B9" s="121"/>
       <c r="C9" s="126" t="s">
         <v>156</v>
@@ -11777,8 +11809,8 @@
       </c>
       <c r="R9" s="132"/>
     </row>
-    <row r="10" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="372"/>
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="390"/>
       <c r="B10" s="121"/>
       <c r="C10" s="126" t="s">
         <v>155</v>
@@ -11814,8 +11846,8 @@
       </c>
       <c r="R10" s="132"/>
     </row>
-    <row r="11" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="372"/>
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="390"/>
       <c r="B11" s="121"/>
       <c r="C11" s="126" t="s">
         <v>154</v>
@@ -11851,8 +11883,8 @@
       </c>
       <c r="R11" s="132"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="372"/>
+    <row r="12" spans="1:18" ht="15">
+      <c r="A12" s="390"/>
       <c r="B12" s="121"/>
       <c r="C12" s="126" t="s">
         <v>153</v>
@@ -11888,8 +11920,8 @@
       </c>
       <c r="R12" s="132"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="372"/>
+    <row r="13" spans="1:18" ht="15">
+      <c r="A13" s="390"/>
       <c r="B13" s="121"/>
       <c r="C13" s="126" t="s">
         <v>152</v>
@@ -11925,8 +11957,8 @@
       </c>
       <c r="R13" s="132"/>
     </row>
-    <row r="14" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="372"/>
+    <row r="14" spans="1:18" ht="15">
+      <c r="A14" s="390"/>
       <c r="B14" s="121"/>
       <c r="C14" s="126" t="s">
         <v>151</v>
@@ -11962,8 +11994,8 @@
       </c>
       <c r="R14" s="132"/>
     </row>
-    <row r="15" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="372"/>
+    <row r="15" spans="1:18" ht="15">
+      <c r="A15" s="390"/>
       <c r="B15" s="121"/>
       <c r="C15" s="126" t="s">
         <v>150</v>
@@ -11999,8 +12031,8 @@
       </c>
       <c r="R15" s="132"/>
     </row>
-    <row r="16" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="372"/>
+    <row r="16" spans="1:18" ht="15">
+      <c r="A16" s="390"/>
       <c r="B16" s="121"/>
       <c r="C16" s="126" t="s">
         <v>149</v>
@@ -12036,8 +12068,8 @@
       </c>
       <c r="R16" s="132"/>
     </row>
-    <row r="17" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="372"/>
+    <row r="17" spans="1:18" ht="15">
+      <c r="A17" s="390"/>
       <c r="B17" s="121"/>
       <c r="C17" s="126" t="s">
         <v>148</v>
@@ -12073,8 +12105,8 @@
       </c>
       <c r="R17" s="132"/>
     </row>
-    <row r="18" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="372"/>
+    <row r="18" spans="1:18" ht="15">
+      <c r="A18" s="390"/>
       <c r="B18" s="121"/>
       <c r="C18" s="126" t="s">
         <v>147</v>
@@ -12110,8 +12142,8 @@
       </c>
       <c r="R18" s="132"/>
     </row>
-    <row r="19" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="372"/>
+    <row r="19" spans="1:18" ht="15">
+      <c r="A19" s="390"/>
       <c r="B19" s="121"/>
       <c r="C19" s="126" t="s">
         <v>146</v>
@@ -12147,8 +12179,8 @@
       </c>
       <c r="R19" s="132"/>
     </row>
-    <row r="20" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="372"/>
+    <row r="20" spans="1:18" ht="15">
+      <c r="A20" s="390"/>
       <c r="B20" s="121"/>
       <c r="C20" s="126" t="s">
         <v>145</v>
@@ -12184,8 +12216,8 @@
       </c>
       <c r="R20" s="132"/>
     </row>
-    <row r="21" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="372"/>
+    <row r="21" spans="1:18" ht="15">
+      <c r="A21" s="390"/>
       <c r="B21" s="121"/>
       <c r="C21" s="126" t="s">
         <v>144</v>
@@ -12221,8 +12253,8 @@
       </c>
       <c r="R21" s="132"/>
     </row>
-    <row r="22" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="372"/>
+    <row r="22" spans="1:18" ht="15">
+      <c r="A22" s="390"/>
       <c r="B22" s="121"/>
       <c r="C22" s="134" t="s">
         <v>143</v>
@@ -12258,8 +12290,8 @@
       </c>
       <c r="R22" s="135"/>
     </row>
-    <row r="23" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="372"/>
+    <row r="23" spans="1:18" ht="15">
+      <c r="A23" s="390"/>
       <c r="B23" s="121"/>
       <c r="C23" s="126" t="s">
         <v>142</v>
@@ -12295,8 +12327,8 @@
       </c>
       <c r="R23" s="132"/>
     </row>
-    <row r="24" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="372"/>
+    <row r="24" spans="1:18" ht="15">
+      <c r="A24" s="390"/>
       <c r="B24" s="121"/>
       <c r="C24" s="126" t="s">
         <v>141</v>
@@ -12332,8 +12364,8 @@
       </c>
       <c r="R24" s="132"/>
     </row>
-    <row r="25" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="372"/>
+    <row r="25" spans="1:18" ht="15">
+      <c r="A25" s="390"/>
       <c r="B25" s="121"/>
       <c r="C25" s="126" t="s">
         <v>140</v>
@@ -12369,8 +12401,8 @@
       </c>
       <c r="R25" s="132"/>
     </row>
-    <row r="26" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="372"/>
+    <row r="26" spans="1:18" ht="15">
+      <c r="A26" s="390"/>
       <c r="B26" s="121"/>
       <c r="C26" s="126" t="s">
         <v>139</v>
@@ -12406,8 +12438,8 @@
       </c>
       <c r="R26" s="132"/>
     </row>
-    <row r="27" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="372"/>
+    <row r="27" spans="1:18" ht="15">
+      <c r="A27" s="390"/>
       <c r="B27" s="121"/>
       <c r="C27" s="126" t="s">
         <v>138</v>
@@ -12443,8 +12475,8 @@
       </c>
       <c r="R27" s="132"/>
     </row>
-    <row r="28" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="372"/>
+    <row r="28" spans="1:18" ht="15">
+      <c r="A28" s="390"/>
       <c r="B28" s="121"/>
       <c r="C28" s="126" t="s">
         <v>137</v>
@@ -12480,8 +12512,8 @@
       </c>
       <c r="R28" s="132"/>
     </row>
-    <row r="29" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="372"/>
+    <row r="29" spans="1:18" ht="15">
+      <c r="A29" s="390"/>
       <c r="B29" s="121"/>
       <c r="C29" s="126" t="s">
         <v>136</v>
@@ -12517,8 +12549,8 @@
       </c>
       <c r="R29" s="132"/>
     </row>
-    <row r="30" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="372"/>
+    <row r="30" spans="1:18" ht="15">
+      <c r="A30" s="390"/>
       <c r="B30" s="121"/>
       <c r="C30" s="126" t="s">
         <v>135</v>
@@ -12554,8 +12586,8 @@
       </c>
       <c r="R30" s="132"/>
     </row>
-    <row r="31" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="372"/>
+    <row r="31" spans="1:18" ht="15">
+      <c r="A31" s="390"/>
       <c r="B31" s="121"/>
       <c r="C31" s="126"/>
       <c r="D31" s="133">
@@ -12588,8 +12620,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="372"/>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A32" s="390"/>
       <c r="B32" s="121"/>
       <c r="C32" s="134"/>
       <c r="D32" s="133">
@@ -12606,8 +12638,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="372"/>
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A33" s="390"/>
       <c r="B33" s="121"/>
       <c r="C33" s="136" t="s">
         <v>134</v>
@@ -12616,10 +12648,10 @@
         <f>Architecture!A7</f>
         <v>1000</v>
       </c>
-      <c r="E33" s="414" t="s">
+      <c r="E33" s="432" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="414"/>
+      <c r="F33" s="432"/>
       <c r="G33" s="137">
         <f>SUM(D8:D32)</f>
         <v>3333.3333333333335</v>
@@ -12628,38 +12660,38 @@
       <c r="J33" s="139"/>
       <c r="K33" s="139"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="372"/>
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A34" s="390"/>
       <c r="B34" s="121"/>
       <c r="C34" s="121"/>
       <c r="D34" s="140"/>
-      <c r="E34" s="415" t="s">
+      <c r="E34" s="433" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="415"/>
+      <c r="F34" s="433"/>
       <c r="G34" s="137">
         <f>SUM(G8:G32)</f>
         <v>1666.6666666666667</v>
       </c>
       <c r="H34" s="138"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="372"/>
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A35" s="390"/>
       <c r="B35" s="121"/>
       <c r="C35" s="121"/>
       <c r="D35" s="140"/>
-      <c r="E35" s="415" t="s">
+      <c r="E35" s="433" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="415"/>
+      <c r="F35" s="433"/>
       <c r="G35" s="137">
         <f>SUMIF(E8:E32,"&lt;&gt;0",D8:D32)</f>
         <v>3333.3333333333335</v>
       </c>
       <c r="H35" s="138"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="372"/>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="390"/>
       <c r="B36" s="121"/>
       <c r="C36" s="121"/>
       <c r="D36" s="121"/>
@@ -12667,35 +12699,35 @@
       <c r="F36" s="121"/>
       <c r="G36" s="141"/>
     </row>
-    <row r="37" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="372" t="s">
+    <row r="37" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A37" s="390" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="121"/>
       <c r="H37" s="142"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="372"/>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A38" s="390"/>
       <c r="B38" s="121"/>
       <c r="H38" s="143"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="372"/>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A39" s="390"/>
       <c r="B39" s="121"/>
       <c r="H39" s="143"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="372"/>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A40" s="390"/>
       <c r="B40" s="121"/>
       <c r="H40" s="143"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="372"/>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A41" s="390"/>
       <c r="B41" s="121"/>
       <c r="H41" s="143"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="372"/>
+    <row r="42" spans="1:13" ht="15" customHeight="1">
+      <c r="A42" s="390"/>
       <c r="B42" s="121"/>
       <c r="C42" s="144"/>
       <c r="D42" s="121"/>
@@ -12704,29 +12736,29 @@
       <c r="G42" s="146"/>
       <c r="H42" s="143"/>
     </row>
-    <row r="43" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="372"/>
+    <row r="43" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A43" s="390"/>
       <c r="B43" s="121"/>
-      <c r="C43" s="390" t="s">
+      <c r="C43" s="408" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="391"/>
-      <c r="E43" s="391"/>
-      <c r="F43" s="391"/>
+      <c r="D43" s="409"/>
+      <c r="E43" s="409"/>
+      <c r="F43" s="409"/>
       <c r="G43" s="147" t="s">
         <v>128</v>
       </c>
       <c r="H43" s="143"/>
     </row>
-    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="372"/>
+    <row r="44" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A44" s="390"/>
       <c r="B44" s="121"/>
-      <c r="C44" s="392" t="s">
+      <c r="C44" s="410" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="392"/>
-      <c r="E44" s="392"/>
-      <c r="F44" s="392"/>
+      <c r="D44" s="410"/>
+      <c r="E44" s="410"/>
+      <c r="F44" s="410"/>
       <c r="G44" s="148">
         <f>G33*0.05</f>
         <v>166.66666666666669</v>
@@ -12736,15 +12768,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="372"/>
+    <row r="45" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A45" s="390"/>
       <c r="B45" s="121"/>
-      <c r="C45" s="392" t="s">
+      <c r="C45" s="410" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="392"/>
-      <c r="E45" s="392"/>
-      <c r="F45" s="392"/>
+      <c r="D45" s="410"/>
+      <c r="E45" s="410"/>
+      <c r="F45" s="410"/>
       <c r="G45" s="148">
         <f>G33*0.02</f>
         <v>66.666666666666671</v>
@@ -12754,8 +12786,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="372"/>
+    <row r="46" spans="1:13" ht="15" customHeight="1">
+      <c r="A46" s="390"/>
       <c r="B46" s="121"/>
       <c r="C46" s="121"/>
       <c r="D46" s="121"/>
@@ -12763,26 +12795,26 @@
       <c r="F46" s="145"/>
       <c r="G46" s="141"/>
     </row>
-    <row r="47" spans="1:13" s="114" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="372"/>
-      <c r="C47" s="393" t="s">
+    <row r="47" spans="1:13" s="114" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A47" s="390"/>
+      <c r="C47" s="411" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="394"/>
-      <c r="E47" s="394"/>
-      <c r="F47" s="394"/>
+      <c r="D47" s="412"/>
+      <c r="E47" s="412"/>
+      <c r="F47" s="412"/>
       <c r="G47" s="149" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="372"/>
-      <c r="C48" s="395" t="s">
+    <row r="48" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="390"/>
+      <c r="C48" s="413" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="396"/>
-      <c r="E48" s="396"/>
-      <c r="F48" s="397"/>
+      <c r="D48" s="414"/>
+      <c r="E48" s="414"/>
+      <c r="F48" s="415"/>
       <c r="G48" s="150">
         <v>2</v>
       </c>
@@ -12790,14 +12822,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="372"/>
-      <c r="C49" s="395" t="s">
+    <row r="49" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="390"/>
+      <c r="C49" s="413" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="396"/>
-      <c r="E49" s="396"/>
-      <c r="F49" s="397"/>
+      <c r="D49" s="414"/>
+      <c r="E49" s="414"/>
+      <c r="F49" s="415"/>
       <c r="G49" s="150">
         <v>2</v>
       </c>
@@ -12805,14 +12837,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="372"/>
-      <c r="C50" s="395" t="s">
+    <row r="50" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="390"/>
+      <c r="C50" s="413" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="396"/>
-      <c r="E50" s="396"/>
-      <c r="F50" s="397"/>
+      <c r="D50" s="414"/>
+      <c r="E50" s="414"/>
+      <c r="F50" s="415"/>
       <c r="G50" s="150">
         <v>2</v>
       </c>
@@ -12820,14 +12852,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="372"/>
-      <c r="C51" s="395" t="s">
+    <row r="51" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="390"/>
+      <c r="C51" s="413" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="396"/>
-      <c r="E51" s="396"/>
-      <c r="F51" s="397"/>
+      <c r="D51" s="414"/>
+      <c r="E51" s="414"/>
+      <c r="F51" s="415"/>
       <c r="G51" s="150">
         <v>3</v>
       </c>
@@ -12835,73 +12867,73 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="372"/>
-      <c r="C52" s="395" t="s">
+    <row r="52" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A52" s="390"/>
+      <c r="C52" s="413" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="396"/>
-      <c r="E52" s="396"/>
-      <c r="F52" s="397"/>
+      <c r="D52" s="414"/>
+      <c r="E52" s="414"/>
+      <c r="F52" s="415"/>
       <c r="G52" s="151">
         <f>IFERROR((G44*30)/G33,0)</f>
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="372"/>
-      <c r="C53" s="395" t="s">
+    <row r="53" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A53" s="390"/>
+      <c r="C53" s="413" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="396"/>
-      <c r="E53" s="396"/>
-      <c r="F53" s="397"/>
+      <c r="D53" s="414"/>
+      <c r="E53" s="414"/>
+      <c r="F53" s="415"/>
       <c r="G53" s="151">
         <f>IFERROR((G45*30)/D33,0)</f>
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="372"/>
-      <c r="C54" s="395" t="s">
+    <row r="54" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A54" s="390"/>
+      <c r="C54" s="413" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="396"/>
-      <c r="E54" s="396"/>
-      <c r="F54" s="397"/>
+      <c r="D54" s="414"/>
+      <c r="E54" s="414"/>
+      <c r="F54" s="415"/>
       <c r="G54" s="152">
         <f>IFERROR(AVERAGEIF(D8:D32,"&lt;&gt;0",E8:E32),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="372"/>
-      <c r="C55" s="395" t="s">
+    <row r="55" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="390"/>
+      <c r="C55" s="413" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="396"/>
-      <c r="E55" s="396"/>
-      <c r="F55" s="397"/>
+      <c r="D55" s="414"/>
+      <c r="E55" s="414"/>
+      <c r="F55" s="415"/>
       <c r="G55" s="152">
         <f>IFERROR(SUMPRODUCT(D8:D32,F8:F32)/G33,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="372"/>
+    <row r="56" spans="1:13" s="121" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="390"/>
       <c r="C56" s="153"/>
       <c r="D56" s="153"/>
       <c r="E56" s="153"/>
       <c r="F56" s="153"/>
       <c r="G56" s="154"/>
     </row>
-    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="372"/>
+    <row r="57" spans="1:13" ht="30">
+      <c r="A57" s="390"/>
       <c r="B57" s="121"/>
-      <c r="C57" s="400" t="s">
+      <c r="C57" s="418" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="401"/>
+      <c r="D57" s="419"/>
       <c r="E57" s="155" t="s">
         <v>121</v>
       </c>
@@ -12921,13 +12953,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="372"/>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A58" s="390"/>
       <c r="B58" s="121"/>
-      <c r="C58" s="402" t="s">
+      <c r="C58" s="420" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="403"/>
+      <c r="D58" s="421"/>
       <c r="E58" s="159" t="s">
         <v>115</v>
       </c>
@@ -12953,13 +12985,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="372"/>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A59" s="390"/>
       <c r="B59" s="121"/>
-      <c r="C59" s="402" t="s">
+      <c r="C59" s="420" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="403"/>
+      <c r="D59" s="421"/>
       <c r="E59" s="159" t="s">
         <v>117</v>
       </c>
@@ -12985,13 +13017,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="372"/>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A60" s="390"/>
       <c r="B60" s="121"/>
-      <c r="C60" s="402" t="s">
+      <c r="C60" s="420" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="403"/>
+      <c r="D60" s="421"/>
       <c r="E60" s="159" t="s">
         <v>115</v>
       </c>
@@ -13017,13 +13049,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="372"/>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A61" s="390"/>
       <c r="B61" s="121"/>
-      <c r="C61" s="398" t="s">
+      <c r="C61" s="416" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="399"/>
+      <c r="D61" s="417"/>
       <c r="E61" s="159" t="s">
         <v>117</v>
       </c>
@@ -13049,13 +13081,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="372"/>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A62" s="390"/>
       <c r="B62" s="121"/>
-      <c r="C62" s="402" t="s">
+      <c r="C62" s="420" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="403"/>
+      <c r="D62" s="421"/>
       <c r="E62" s="159" t="s">
         <v>113</v>
       </c>
@@ -13081,13 +13113,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="372"/>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A63" s="390"/>
       <c r="B63" s="121"/>
-      <c r="C63" s="402" t="s">
+      <c r="C63" s="420" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="403"/>
+      <c r="D63" s="421"/>
       <c r="E63" s="159" t="s">
         <v>113</v>
       </c>
@@ -13113,13 +13145,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="372"/>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A64" s="390"/>
       <c r="B64" s="121"/>
-      <c r="C64" s="398" t="s">
+      <c r="C64" s="416" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="399"/>
+      <c r="D64" s="417"/>
       <c r="E64" s="159" t="s">
         <v>116</v>
       </c>
@@ -13145,13 +13177,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="372"/>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A65" s="390"/>
       <c r="B65" s="121"/>
-      <c r="C65" s="398" t="s">
+      <c r="C65" s="416" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="399"/>
+      <c r="D65" s="417"/>
       <c r="E65" s="159" t="s">
         <v>115</v>
       </c>
@@ -13177,13 +13209,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="373"/>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A66" s="391"/>
       <c r="B66" s="164"/>
-      <c r="C66" s="371" t="s">
+      <c r="C66" s="389" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="371"/>
+      <c r="D66" s="389"/>
       <c r="E66" s="165" t="s">
         <v>113</v>
       </c>
@@ -13208,31 +13240,31 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
       <c r="C67" s="153"/>
       <c r="D67" s="153"/>
       <c r="E67" s="153"/>
       <c r="F67" s="153"/>
       <c r="G67" s="168"/>
     </row>
-    <row r="68" spans="1:13" s="114" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="114" customFormat="1" ht="15.75" thickBot="1">
       <c r="C68" s="169"/>
       <c r="D68" s="121"/>
       <c r="G68" s="170"/>
     </row>
-    <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="374" t="s">
+    <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1">
+      <c r="A69" s="392" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="118"/>
-      <c r="C69" s="375" t="s">
+      <c r="C69" s="393" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="376"/>
-      <c r="E69" s="376" t="s">
+      <c r="D69" s="394"/>
+      <c r="E69" s="394" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="376"/>
+      <c r="F69" s="394"/>
       <c r="G69" s="171" t="s">
         <v>108</v>
       </c>
@@ -13240,117 +13272,117 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="372"/>
+    <row r="70" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A70" s="390"/>
       <c r="B70" s="121"/>
-      <c r="C70" s="377" t="s">
+      <c r="C70" s="395" t="s">
         <v>106</v>
       </c>
       <c r="D70" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="379" t="s">
+      <c r="E70" s="397" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="380"/>
+      <c r="F70" s="398"/>
       <c r="G70" s="173">
         <f>(SUM(J8:J31))/1000/1000/1000</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="H70" s="174">
         <f>SUM(G70:G71)</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="372"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A71" s="390"/>
       <c r="B71" s="121"/>
-      <c r="C71" s="378"/>
+      <c r="C71" s="396"/>
       <c r="D71" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="379" t="s">
+      <c r="E71" s="397" t="s">
         <v>102</v>
       </c>
-      <c r="F71" s="380"/>
+      <c r="F71" s="398"/>
       <c r="G71" s="173">
         <f>SUM(K8:K31)/1000/1000/1000</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H71" s="174"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="372"/>
+    <row r="72" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A72" s="390"/>
       <c r="B72" s="121"/>
-      <c r="C72" s="377" t="s">
+      <c r="C72" s="395" t="s">
         <v>101</v>
       </c>
       <c r="D72" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="379" t="s">
+      <c r="E72" s="397" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="380"/>
+      <c r="F72" s="398"/>
       <c r="G72" s="173">
         <f>(SUM(H8:H31)*40)/1000/1000/1000</f>
-        <v>3.504</v>
+        <v>7.008</v>
       </c>
       <c r="H72" s="174"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="372"/>
+    <row r="73" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A73" s="390"/>
       <c r="B73" s="121"/>
-      <c r="C73" s="381"/>
+      <c r="C73" s="399"/>
       <c r="D73" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="379" t="s">
+      <c r="E73" s="397" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="380"/>
+      <c r="F73" s="398"/>
       <c r="G73" s="173">
         <f>((D33+G33+6*(G44+G45)+10)*162*Architecture!E23)/1000/1000/1000</f>
-        <v>2.8300275000000003E-2</v>
+        <v>0.33960330000000005</v>
       </c>
       <c r="H73" s="174"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="372"/>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A74" s="390"/>
       <c r="B74" s="121"/>
-      <c r="C74" s="378"/>
+      <c r="C74" s="396"/>
       <c r="D74" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="382" t="s">
+      <c r="E74" s="400" t="s">
         <v>95</v>
       </c>
-      <c r="F74" s="379"/>
+      <c r="F74" s="397"/>
       <c r="G74" s="173">
         <f>G33*(Architecture!E24*160+D33*140)/1000/1000/1000</f>
         <v>0.66133333333333333</v>
       </c>
       <c r="H74" s="174"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="372"/>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A75" s="390"/>
       <c r="B75" s="121"/>
       <c r="C75" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="383" t="s">
+      <c r="D75" s="401" t="s">
         <v>93</v>
       </c>
-      <c r="E75" s="384"/>
-      <c r="F75" s="385"/>
+      <c r="E75" s="402"/>
+      <c r="F75" s="403"/>
       <c r="G75" s="173">
         <f>(G72)*1.5</f>
-        <v>5.2560000000000002</v>
+        <v>10.512</v>
       </c>
       <c r="H75" s="174"/>
     </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="372"/>
+    <row r="76" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A76" s="390"/>
       <c r="B76" s="121"/>
       <c r="C76" s="176"/>
       <c r="D76" s="121"/>
@@ -13358,29 +13390,29 @@
       <c r="F76" s="121"/>
       <c r="G76" s="141"/>
     </row>
-    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="372"/>
+    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A77" s="390"/>
       <c r="B77" s="121"/>
-      <c r="C77" s="386" t="s">
+      <c r="C77" s="404" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="387"/>
-      <c r="E77" s="387"/>
-      <c r="F77" s="387"/>
+      <c r="D77" s="405"/>
+      <c r="E77" s="405"/>
+      <c r="F77" s="405"/>
       <c r="G77" s="177">
         <f>SUM(G70:G75)</f>
-        <v>11.699633608333333</v>
+        <v>23.020936633333335</v>
       </c>
       <c r="H77" s="178">
         <f>IF(G77-G71-G70&lt;5,5,G77-G71-G70)</f>
-        <v>9.4496336083333325</v>
+        <v>18.520936633333335</v>
       </c>
       <c r="J77" s="179" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="372"/>
+    <row r="78" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A78" s="390"/>
       <c r="B78" s="121"/>
       <c r="C78" s="176"/>
       <c r="D78" s="121"/>
@@ -13391,21 +13423,21 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="373"/>
+    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A79" s="391"/>
       <c r="B79" s="164"/>
-      <c r="C79" s="388" t="s">
+      <c r="C79" s="406" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="389"/>
-      <c r="E79" s="389"/>
-      <c r="F79" s="389"/>
+      <c r="D79" s="407"/>
+      <c r="E79" s="407"/>
+      <c r="F79" s="407"/>
       <c r="G79" s="181">
         <f>IFERROR(SUM(G58:G66)/1000,0)</f>
         <v>22.821625451660154</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="13.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:13" ht="13.5" thickTop="1"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="wU8b/4hld4+ABwPbuYxdZgWD7Cnsg/WOuROrPU6V7tLcmfLgCYk3vmgoN4ISSJCESsAOf4ovscyRAI2hY+6y4g==" saltValue="qAW5QX9biE7AbC0GgNIpLQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="46">
@@ -13474,88 +13506,88 @@
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="113" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="113" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="113" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="113" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="113" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="113" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="113" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="113" customWidth="1"/>
     <col min="8" max="8" width="24" style="113" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="113" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="113" customWidth="1"/>
     <col min="10" max="10" width="29" style="113" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" style="113" customWidth="1"/>
-    <col min="12" max="14" width="11.44140625" style="113"/>
-    <col min="15" max="15" width="17.88671875" style="113" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="113"/>
+    <col min="11" max="11" width="22.85546875" style="113" customWidth="1"/>
+    <col min="12" max="14" width="11.42578125" style="113"/>
+    <col min="15" max="15" width="17.85546875" style="113" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="113"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="404" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1">
+      <c r="A1" s="422" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="405" t="s">
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="423" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="405"/>
-      <c r="G1" s="405"/>
+      <c r="F1" s="423"/>
+      <c r="G1" s="423"/>
       <c r="H1" s="112"/>
       <c r="M1" s="114" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" s="116" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="406" t="s">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:18" s="116" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="424" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="407"/>
-      <c r="C3" s="407"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="407"/>
-      <c r="F3" s="407" t="s">
+      <c r="B3" s="425"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="408"/>
+      <c r="G3" s="426"/>
       <c r="H3" s="115"/>
     </row>
-    <row r="4" spans="1:18" s="116" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="409" t="s">
+    <row r="4" spans="1:18" s="116" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A4" s="427" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="410"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="411"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="428"/>
+      <c r="E4" s="428"/>
+      <c r="F4" s="428"/>
+      <c r="G4" s="429"/>
       <c r="H4" s="117"/>
     </row>
-    <row r="5" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:18" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="374" t="s">
+    <row r="5" spans="1:18" ht="13.5" thickBot="1"/>
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A6" s="392" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="118"/>
-      <c r="C6" s="412" t="s">
+      <c r="C6" s="430" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="412"/>
-      <c r="E6" s="412"/>
-      <c r="F6" s="412"/>
-      <c r="G6" s="413"/>
+      <c r="D6" s="430"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="431"/>
       <c r="H6" s="119"/>
       <c r="I6" s="120"/>
       <c r="J6" s="120"/>
       <c r="K6" s="120"/>
     </row>
-    <row r="7" spans="1:18" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A7" s="372"/>
+    <row r="7" spans="1:18" ht="38.25">
+      <c r="A7" s="390"/>
       <c r="B7" s="121"/>
       <c r="C7" s="122" t="s">
         <v>166</v>
@@ -13588,8 +13620,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="372"/>
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="390"/>
       <c r="B8" s="121"/>
       <c r="C8" s="126" t="s">
         <v>157</v>
@@ -13610,7 +13642,7 @@
       </c>
       <c r="H8" s="129">
         <f>Architecture!$E$22*(86400/(F8*60))*G8</f>
-        <v>1051200000</v>
+        <v>2102400000</v>
       </c>
       <c r="I8" s="130">
         <f>((Architecture!$E$24*24*60)/F8)*D8</f>
@@ -13618,19 +13650,19 @@
       </c>
       <c r="J8" s="131">
         <f>((O8*5/F8)*G8)*(Architecture!$D$21/6)</f>
-        <v>9000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="K8" s="131">
         <f>IF(E8&lt;&gt;0,((O8*5/F8)*D8)*(Architecture!$D$21/6),0)</f>
-        <v>4500000000</v>
+        <v>9000000000</v>
       </c>
       <c r="O8" s="113">
         <v>450000</v>
       </c>
       <c r="R8" s="132"/>
     </row>
-    <row r="9" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="372"/>
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="390"/>
       <c r="B9" s="121"/>
       <c r="C9" s="126" t="s">
         <v>156</v>
@@ -13666,8 +13698,8 @@
       </c>
       <c r="R9" s="132"/>
     </row>
-    <row r="10" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="372"/>
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="390"/>
       <c r="B10" s="121"/>
       <c r="C10" s="126" t="s">
         <v>155</v>
@@ -13703,8 +13735,8 @@
       </c>
       <c r="R10" s="132"/>
     </row>
-    <row r="11" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="372"/>
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="390"/>
       <c r="B11" s="121"/>
       <c r="C11" s="126" t="s">
         <v>154</v>
@@ -13740,8 +13772,8 @@
       </c>
       <c r="R11" s="132"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="372"/>
+    <row r="12" spans="1:18" ht="15">
+      <c r="A12" s="390"/>
       <c r="B12" s="121"/>
       <c r="C12" s="126" t="s">
         <v>153</v>
@@ -13777,8 +13809,8 @@
       </c>
       <c r="R12" s="132"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="372"/>
+    <row r="13" spans="1:18" ht="15">
+      <c r="A13" s="390"/>
       <c r="B13" s="121"/>
       <c r="C13" s="126" t="s">
         <v>152</v>
@@ -13814,8 +13846,8 @@
       </c>
       <c r="R13" s="132"/>
     </row>
-    <row r="14" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="372"/>
+    <row r="14" spans="1:18" ht="15">
+      <c r="A14" s="390"/>
       <c r="B14" s="121"/>
       <c r="C14" s="126" t="s">
         <v>151</v>
@@ -13851,8 +13883,8 @@
       </c>
       <c r="R14" s="132"/>
     </row>
-    <row r="15" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="372"/>
+    <row r="15" spans="1:18" ht="15">
+      <c r="A15" s="390"/>
       <c r="B15" s="121"/>
       <c r="C15" s="126" t="s">
         <v>150</v>
@@ -13888,8 +13920,8 @@
       </c>
       <c r="R15" s="132"/>
     </row>
-    <row r="16" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="372"/>
+    <row r="16" spans="1:18" ht="15">
+      <c r="A16" s="390"/>
       <c r="B16" s="121"/>
       <c r="C16" s="126" t="s">
         <v>149</v>
@@ -13925,8 +13957,8 @@
       </c>
       <c r="R16" s="132"/>
     </row>
-    <row r="17" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="372"/>
+    <row r="17" spans="1:18" ht="15">
+      <c r="A17" s="390"/>
       <c r="B17" s="121"/>
       <c r="C17" s="126" t="s">
         <v>148</v>
@@ -13962,8 +13994,8 @@
       </c>
       <c r="R17" s="132"/>
     </row>
-    <row r="18" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="372"/>
+    <row r="18" spans="1:18" ht="15">
+      <c r="A18" s="390"/>
       <c r="B18" s="121"/>
       <c r="C18" s="126" t="s">
         <v>147</v>
@@ -13999,8 +14031,8 @@
       </c>
       <c r="R18" s="132"/>
     </row>
-    <row r="19" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="372"/>
+    <row r="19" spans="1:18" ht="15">
+      <c r="A19" s="390"/>
       <c r="B19" s="121"/>
       <c r="C19" s="126" t="s">
         <v>146</v>
@@ -14036,8 +14068,8 @@
       </c>
       <c r="R19" s="132"/>
     </row>
-    <row r="20" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="372"/>
+    <row r="20" spans="1:18" ht="15">
+      <c r="A20" s="390"/>
       <c r="B20" s="121"/>
       <c r="C20" s="126" t="s">
         <v>145</v>
@@ -14073,8 +14105,8 @@
       </c>
       <c r="R20" s="132"/>
     </row>
-    <row r="21" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="372"/>
+    <row r="21" spans="1:18" ht="15">
+      <c r="A21" s="390"/>
       <c r="B21" s="121"/>
       <c r="C21" s="126" t="s">
         <v>144</v>
@@ -14110,8 +14142,8 @@
       </c>
       <c r="R21" s="132"/>
     </row>
-    <row r="22" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="372"/>
+    <row r="22" spans="1:18" ht="15">
+      <c r="A22" s="390"/>
       <c r="B22" s="121"/>
       <c r="C22" s="134" t="s">
         <v>143</v>
@@ -14147,8 +14179,8 @@
       </c>
       <c r="R22" s="135"/>
     </row>
-    <row r="23" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="372"/>
+    <row r="23" spans="1:18" ht="15">
+      <c r="A23" s="390"/>
       <c r="B23" s="121"/>
       <c r="C23" s="126" t="s">
         <v>142</v>
@@ -14184,8 +14216,8 @@
       </c>
       <c r="R23" s="132"/>
     </row>
-    <row r="24" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="372"/>
+    <row r="24" spans="1:18" ht="15">
+      <c r="A24" s="390"/>
       <c r="B24" s="121"/>
       <c r="C24" s="126" t="s">
         <v>141</v>
@@ -14221,8 +14253,8 @@
       </c>
       <c r="R24" s="132"/>
     </row>
-    <row r="25" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="372"/>
+    <row r="25" spans="1:18" ht="15">
+      <c r="A25" s="390"/>
       <c r="B25" s="121"/>
       <c r="C25" s="126" t="s">
         <v>140</v>
@@ -14258,8 +14290,8 @@
       </c>
       <c r="R25" s="132"/>
     </row>
-    <row r="26" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="372"/>
+    <row r="26" spans="1:18" ht="15">
+      <c r="A26" s="390"/>
       <c r="B26" s="121"/>
       <c r="C26" s="126" t="s">
         <v>139</v>
@@ -14295,8 +14327,8 @@
       </c>
       <c r="R26" s="132"/>
     </row>
-    <row r="27" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="372"/>
+    <row r="27" spans="1:18" ht="15">
+      <c r="A27" s="390"/>
       <c r="B27" s="121"/>
       <c r="C27" s="126" t="s">
         <v>138</v>
@@ -14332,8 +14364,8 @@
       </c>
       <c r="R27" s="132"/>
     </row>
-    <row r="28" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="372"/>
+    <row r="28" spans="1:18" ht="15">
+      <c r="A28" s="390"/>
       <c r="B28" s="121"/>
       <c r="C28" s="126" t="s">
         <v>137</v>
@@ -14369,8 +14401,8 @@
       </c>
       <c r="R28" s="132"/>
     </row>
-    <row r="29" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="372"/>
+    <row r="29" spans="1:18" ht="15">
+      <c r="A29" s="390"/>
       <c r="B29" s="121"/>
       <c r="C29" s="126" t="s">
         <v>136</v>
@@ -14406,8 +14438,8 @@
       </c>
       <c r="R29" s="132"/>
     </row>
-    <row r="30" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="372"/>
+    <row r="30" spans="1:18" ht="15">
+      <c r="A30" s="390"/>
       <c r="B30" s="121"/>
       <c r="C30" s="126" t="s">
         <v>135</v>
@@ -14443,8 +14475,8 @@
       </c>
       <c r="R30" s="132"/>
     </row>
-    <row r="31" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="372"/>
+    <row r="31" spans="1:18" ht="15">
+      <c r="A31" s="390"/>
       <c r="B31" s="121"/>
       <c r="C31" s="126"/>
       <c r="D31" s="133">
@@ -14477,8 +14509,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="372"/>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A32" s="390"/>
       <c r="B32" s="121"/>
       <c r="C32" s="134"/>
       <c r="D32" s="133">
@@ -14495,8 +14527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="372"/>
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A33" s="390"/>
       <c r="B33" s="121"/>
       <c r="C33" s="136" t="s">
         <v>134</v>
@@ -14505,10 +14537,10 @@
         <f>Architecture!A7</f>
         <v>1000</v>
       </c>
-      <c r="E33" s="414" t="s">
+      <c r="E33" s="432" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="414"/>
+      <c r="F33" s="432"/>
       <c r="G33" s="137">
         <f>SUM(D8:D32)</f>
         <v>10000</v>
@@ -14520,15 +14552,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="372"/>
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A34" s="390"/>
       <c r="B34" s="121"/>
       <c r="C34" s="121"/>
       <c r="D34" s="140"/>
-      <c r="E34" s="415" t="s">
+      <c r="E34" s="433" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="415"/>
+      <c r="F34" s="433"/>
       <c r="G34" s="137">
         <f>SUM(G8:G32)</f>
         <v>20000</v>
@@ -14539,23 +14571,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="372"/>
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A35" s="390"/>
       <c r="B35" s="121"/>
       <c r="C35" s="121"/>
       <c r="D35" s="140"/>
-      <c r="E35" s="415" t="s">
+      <c r="E35" s="433" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="415"/>
+      <c r="F35" s="433"/>
       <c r="G35" s="137">
         <f>SUMIF(E8:E32,"&lt;&gt;0",D8:D32)</f>
         <v>10000</v>
       </c>
       <c r="H35" s="138"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="372"/>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="390"/>
       <c r="B36" s="121"/>
       <c r="C36" s="121"/>
       <c r="D36" s="121"/>
@@ -14563,35 +14595,35 @@
       <c r="F36" s="121"/>
       <c r="G36" s="141"/>
     </row>
-    <row r="37" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="372" t="s">
+    <row r="37" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A37" s="390" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="121"/>
       <c r="H37" s="142"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="372"/>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A38" s="390"/>
       <c r="B38" s="121"/>
       <c r="H38" s="143"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="372"/>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A39" s="390"/>
       <c r="B39" s="121"/>
       <c r="H39" s="143"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="372"/>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A40" s="390"/>
       <c r="B40" s="121"/>
       <c r="H40" s="143"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="372"/>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A41" s="390"/>
       <c r="B41" s="121"/>
       <c r="H41" s="143"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="372"/>
+    <row r="42" spans="1:13" ht="15" customHeight="1">
+      <c r="A42" s="390"/>
       <c r="B42" s="121"/>
       <c r="C42" s="144"/>
       <c r="D42" s="121"/>
@@ -14600,29 +14632,29 @@
       <c r="G42" s="146"/>
       <c r="H42" s="143"/>
     </row>
-    <row r="43" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="372"/>
+    <row r="43" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A43" s="390"/>
       <c r="B43" s="121"/>
-      <c r="C43" s="390" t="s">
+      <c r="C43" s="408" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="391"/>
-      <c r="E43" s="391"/>
-      <c r="F43" s="391"/>
+      <c r="D43" s="409"/>
+      <c r="E43" s="409"/>
+      <c r="F43" s="409"/>
       <c r="G43" s="147" t="s">
         <v>128</v>
       </c>
       <c r="H43" s="143"/>
     </row>
-    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="372"/>
+    <row r="44" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A44" s="390"/>
       <c r="B44" s="121"/>
-      <c r="C44" s="392" t="s">
+      <c r="C44" s="410" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="392"/>
-      <c r="E44" s="392"/>
-      <c r="F44" s="392"/>
+      <c r="D44" s="410"/>
+      <c r="E44" s="410"/>
+      <c r="F44" s="410"/>
       <c r="G44" s="148">
         <f>G33*0.05</f>
         <v>500</v>
@@ -14632,15 +14664,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="372"/>
+    <row r="45" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A45" s="390"/>
       <c r="B45" s="121"/>
-      <c r="C45" s="392" t="s">
+      <c r="C45" s="410" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="392"/>
-      <c r="E45" s="392"/>
-      <c r="F45" s="392"/>
+      <c r="D45" s="410"/>
+      <c r="E45" s="410"/>
+      <c r="F45" s="410"/>
       <c r="G45" s="148">
         <f>G33*0.02</f>
         <v>200</v>
@@ -14650,8 +14682,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="372"/>
+    <row r="46" spans="1:13" ht="15" customHeight="1">
+      <c r="A46" s="390"/>
       <c r="B46" s="121"/>
       <c r="C46" s="121"/>
       <c r="D46" s="121"/>
@@ -14659,26 +14691,26 @@
       <c r="F46" s="145"/>
       <c r="G46" s="141"/>
     </row>
-    <row r="47" spans="1:13" s="114" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="372"/>
-      <c r="C47" s="393" t="s">
+    <row r="47" spans="1:13" s="114" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A47" s="390"/>
+      <c r="C47" s="411" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="394"/>
-      <c r="E47" s="394"/>
-      <c r="F47" s="394"/>
+      <c r="D47" s="412"/>
+      <c r="E47" s="412"/>
+      <c r="F47" s="412"/>
       <c r="G47" s="149" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="372"/>
-      <c r="C48" s="395" t="s">
+    <row r="48" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="390"/>
+      <c r="C48" s="413" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="396"/>
-      <c r="E48" s="396"/>
-      <c r="F48" s="397"/>
+      <c r="D48" s="414"/>
+      <c r="E48" s="414"/>
+      <c r="F48" s="415"/>
       <c r="G48" s="150">
         <v>2</v>
       </c>
@@ -14686,14 +14718,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="372"/>
-      <c r="C49" s="395" t="s">
+    <row r="49" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="390"/>
+      <c r="C49" s="413" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="396"/>
-      <c r="E49" s="396"/>
-      <c r="F49" s="397"/>
+      <c r="D49" s="414"/>
+      <c r="E49" s="414"/>
+      <c r="F49" s="415"/>
       <c r="G49" s="150">
         <v>2</v>
       </c>
@@ -14701,14 +14733,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="372"/>
-      <c r="C50" s="395" t="s">
+    <row r="50" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="390"/>
+      <c r="C50" s="413" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="396"/>
-      <c r="E50" s="396"/>
-      <c r="F50" s="397"/>
+      <c r="D50" s="414"/>
+      <c r="E50" s="414"/>
+      <c r="F50" s="415"/>
       <c r="G50" s="150">
         <v>2</v>
       </c>
@@ -14716,14 +14748,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="372"/>
-      <c r="C51" s="395" t="s">
+    <row r="51" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="390"/>
+      <c r="C51" s="413" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="396"/>
-      <c r="E51" s="396"/>
-      <c r="F51" s="397"/>
+      <c r="D51" s="414"/>
+      <c r="E51" s="414"/>
+      <c r="F51" s="415"/>
       <c r="G51" s="150">
         <v>3</v>
       </c>
@@ -14731,73 +14763,73 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="372"/>
-      <c r="C52" s="395" t="s">
+    <row r="52" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A52" s="390"/>
+      <c r="C52" s="413" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="396"/>
-      <c r="E52" s="396"/>
-      <c r="F52" s="397"/>
+      <c r="D52" s="414"/>
+      <c r="E52" s="414"/>
+      <c r="F52" s="415"/>
       <c r="G52" s="151">
         <f>IFERROR((G44*30)/G33,0)</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="372"/>
-      <c r="C53" s="395" t="s">
+    <row r="53" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A53" s="390"/>
+      <c r="C53" s="413" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="396"/>
-      <c r="E53" s="396"/>
-      <c r="F53" s="397"/>
+      <c r="D53" s="414"/>
+      <c r="E53" s="414"/>
+      <c r="F53" s="415"/>
       <c r="G53" s="151">
         <f>IFERROR((G45*30)/D33,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="372"/>
-      <c r="C54" s="395" t="s">
+    <row r="54" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A54" s="390"/>
+      <c r="C54" s="413" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="396"/>
-      <c r="E54" s="396"/>
-      <c r="F54" s="397"/>
+      <c r="D54" s="414"/>
+      <c r="E54" s="414"/>
+      <c r="F54" s="415"/>
       <c r="G54" s="152">
         <f>IFERROR(AVERAGEIF(D8:D32,"&lt;&gt;0",E8:E32),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="372"/>
-      <c r="C55" s="395" t="s">
+    <row r="55" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="390"/>
+      <c r="C55" s="413" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="396"/>
-      <c r="E55" s="396"/>
-      <c r="F55" s="397"/>
+      <c r="D55" s="414"/>
+      <c r="E55" s="414"/>
+      <c r="F55" s="415"/>
       <c r="G55" s="152">
         <f>IFERROR(SUMPRODUCT(D8:D32,F8:F32)/G33,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="372"/>
+    <row r="56" spans="1:13" s="121" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="390"/>
       <c r="C56" s="153"/>
       <c r="D56" s="153"/>
       <c r="E56" s="153"/>
       <c r="F56" s="153"/>
       <c r="G56" s="154"/>
     </row>
-    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="372"/>
+    <row r="57" spans="1:13" ht="30">
+      <c r="A57" s="390"/>
       <c r="B57" s="121"/>
-      <c r="C57" s="400" t="s">
+      <c r="C57" s="418" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="401"/>
+      <c r="D57" s="419"/>
       <c r="E57" s="155" t="s">
         <v>121</v>
       </c>
@@ -14817,13 +14849,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="372"/>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A58" s="390"/>
       <c r="B58" s="121"/>
-      <c r="C58" s="402" t="s">
+      <c r="C58" s="420" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="403"/>
+      <c r="D58" s="421"/>
       <c r="E58" s="159" t="s">
         <v>115</v>
       </c>
@@ -14849,13 +14881,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="372"/>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A59" s="390"/>
       <c r="B59" s="121"/>
-      <c r="C59" s="402" t="s">
+      <c r="C59" s="420" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="403"/>
+      <c r="D59" s="421"/>
       <c r="E59" s="159" t="s">
         <v>117</v>
       </c>
@@ -14881,13 +14913,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="372"/>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A60" s="390"/>
       <c r="B60" s="121"/>
-      <c r="C60" s="402" t="s">
+      <c r="C60" s="420" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="403"/>
+      <c r="D60" s="421"/>
       <c r="E60" s="159" t="s">
         <v>115</v>
       </c>
@@ -14913,13 +14945,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="372"/>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A61" s="390"/>
       <c r="B61" s="121"/>
-      <c r="C61" s="398" t="s">
+      <c r="C61" s="416" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="399"/>
+      <c r="D61" s="417"/>
       <c r="E61" s="159" t="s">
         <v>117</v>
       </c>
@@ -14945,13 +14977,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="372"/>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A62" s="390"/>
       <c r="B62" s="121"/>
-      <c r="C62" s="402" t="s">
+      <c r="C62" s="420" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="403"/>
+      <c r="D62" s="421"/>
       <c r="E62" s="159" t="s">
         <v>113</v>
       </c>
@@ -14977,13 +15009,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="372"/>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A63" s="390"/>
       <c r="B63" s="121"/>
-      <c r="C63" s="402" t="s">
+      <c r="C63" s="420" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="403"/>
+      <c r="D63" s="421"/>
       <c r="E63" s="159" t="s">
         <v>113</v>
       </c>
@@ -15009,13 +15041,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="372"/>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A64" s="390"/>
       <c r="B64" s="121"/>
-      <c r="C64" s="398" t="s">
+      <c r="C64" s="416" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="399"/>
+      <c r="D64" s="417"/>
       <c r="E64" s="159" t="s">
         <v>116</v>
       </c>
@@ -15041,13 +15073,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="372"/>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A65" s="390"/>
       <c r="B65" s="121"/>
-      <c r="C65" s="398" t="s">
+      <c r="C65" s="416" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="399"/>
+      <c r="D65" s="417"/>
       <c r="E65" s="159" t="s">
         <v>115</v>
       </c>
@@ -15073,13 +15105,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="373"/>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A66" s="391"/>
       <c r="B66" s="164"/>
-      <c r="C66" s="371" t="s">
+      <c r="C66" s="389" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="371"/>
+      <c r="D66" s="389"/>
       <c r="E66" s="165" t="s">
         <v>113</v>
       </c>
@@ -15104,31 +15136,31 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="121" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
       <c r="C67" s="153"/>
       <c r="D67" s="153"/>
       <c r="E67" s="153"/>
       <c r="F67" s="153"/>
       <c r="G67" s="168"/>
     </row>
-    <row r="68" spans="1:13" s="114" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="114" customFormat="1" ht="15.75" thickBot="1">
       <c r="C68" s="169"/>
       <c r="D68" s="121"/>
       <c r="G68" s="170"/>
     </row>
-    <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="374" t="s">
+    <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1">
+      <c r="A69" s="392" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="118"/>
-      <c r="C69" s="375" t="s">
+      <c r="C69" s="393" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="376"/>
-      <c r="E69" s="376" t="s">
+      <c r="D69" s="394"/>
+      <c r="E69" s="394" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="376"/>
+      <c r="F69" s="394"/>
       <c r="G69" s="171" t="s">
         <v>108</v>
       </c>
@@ -15136,117 +15168,117 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="372"/>
+    <row r="70" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A70" s="390"/>
       <c r="B70" s="121"/>
-      <c r="C70" s="377" t="s">
+      <c r="C70" s="395" t="s">
         <v>106</v>
       </c>
       <c r="D70" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="379" t="s">
+      <c r="E70" s="397" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="380"/>
+      <c r="F70" s="398"/>
       <c r="G70" s="173">
         <f>(SUM(J8:J31))/1000/1000/1000</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H70" s="174">
         <f>SUM(G70:G71)</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="372"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A71" s="390"/>
       <c r="B71" s="121"/>
-      <c r="C71" s="378"/>
+      <c r="C71" s="396"/>
       <c r="D71" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="379" t="s">
+      <c r="E71" s="397" t="s">
         <v>102</v>
       </c>
-      <c r="F71" s="380"/>
+      <c r="F71" s="398"/>
       <c r="G71" s="173">
         <f>SUM(K8:K31)/1000/1000/1000</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="H71" s="174"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="372"/>
+    <row r="72" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A72" s="390"/>
       <c r="B72" s="121"/>
-      <c r="C72" s="377" t="s">
+      <c r="C72" s="395" t="s">
         <v>101</v>
       </c>
       <c r="D72" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="379" t="s">
+      <c r="E72" s="397" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="380"/>
+      <c r="F72" s="398"/>
       <c r="G72" s="173">
         <f>(SUM(H8:H31)*40)/1000/1000/1000</f>
-        <v>42.048000000000002</v>
+        <v>84.096000000000004</v>
       </c>
       <c r="H72" s="174"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="372"/>
+    <row r="73" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A73" s="390"/>
       <c r="B73" s="121"/>
-      <c r="C73" s="381"/>
+      <c r="C73" s="399"/>
       <c r="D73" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="379" t="s">
+      <c r="E73" s="397" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="380"/>
+      <c r="F73" s="398"/>
       <c r="G73" s="173">
         <f>((D33+G33+6*(G44+G45)+10)*162*Architecture!E23)/1000/1000/1000</f>
-        <v>7.4947274999999994E-2</v>
+        <v>0.89936729999999998</v>
       </c>
       <c r="H73" s="174"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="372"/>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A74" s="390"/>
       <c r="B74" s="121"/>
-      <c r="C74" s="378"/>
+      <c r="C74" s="396"/>
       <c r="D74" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="382" t="s">
+      <c r="E74" s="400" t="s">
         <v>95</v>
       </c>
-      <c r="F74" s="379"/>
+      <c r="F74" s="397"/>
       <c r="G74" s="173">
         <f>G33*(Architecture!E24*160+D33*140)/1000/1000/1000</f>
         <v>1.984</v>
       </c>
       <c r="H74" s="174"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="372"/>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A75" s="390"/>
       <c r="B75" s="121"/>
       <c r="C75" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="383" t="s">
+      <c r="D75" s="401" t="s">
         <v>93</v>
       </c>
-      <c r="E75" s="384"/>
-      <c r="F75" s="385"/>
+      <c r="E75" s="402"/>
+      <c r="F75" s="403"/>
       <c r="G75" s="173">
         <f>(G72)*1.5</f>
-        <v>63.072000000000003</v>
+        <v>126.14400000000001</v>
       </c>
       <c r="H75" s="174"/>
     </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="372"/>
+    <row r="76" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A76" s="390"/>
       <c r="B76" s="121"/>
       <c r="C76" s="176"/>
       <c r="D76" s="121"/>
@@ -15254,29 +15286,29 @@
       <c r="F76" s="121"/>
       <c r="G76" s="141"/>
     </row>
-    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="372"/>
+    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A77" s="390"/>
       <c r="B77" s="121"/>
-      <c r="C77" s="386" t="s">
+      <c r="C77" s="404" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="387"/>
-      <c r="E77" s="387"/>
-      <c r="F77" s="387"/>
+      <c r="D77" s="405"/>
+      <c r="E77" s="405"/>
+      <c r="F77" s="405"/>
       <c r="G77" s="177">
         <f>SUM(G70:G75)</f>
-        <v>120.67894727500001</v>
+        <v>240.12336729999998</v>
       </c>
       <c r="H77" s="178">
         <f>IF(G77-G71-G70&lt;5,5,G77-G71-G70)</f>
-        <v>107.17894727500001</v>
+        <v>213.12336729999998</v>
       </c>
       <c r="J77" s="179" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="372"/>
+    <row r="78" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A78" s="390"/>
       <c r="B78" s="121"/>
       <c r="C78" s="176"/>
       <c r="D78" s="121"/>
@@ -15287,21 +15319,21 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="373"/>
+    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A79" s="391"/>
       <c r="B79" s="164"/>
-      <c r="C79" s="388" t="s">
+      <c r="C79" s="406" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="389"/>
-      <c r="E79" s="389"/>
-      <c r="F79" s="389"/>
+      <c r="D79" s="407"/>
+      <c r="E79" s="407"/>
+      <c r="F79" s="407"/>
       <c r="G79" s="181">
         <f>IFERROR(SUM(G58:G66)/1000,0)</f>
         <v>67.859931115722659</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="13.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:13" ht="13.5" thickTop="1"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C7ZaZPSNA7/Rsqkq8eUQpe5A191g/1f1fRlnOmQiQ9h07hPXi3fIKNTAPLsrokJjaWRCoksvR2POVj0D5ipqVA==" saltValue="8f6rAC0brj6C/m8EqDH1Fg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="46">
@@ -15367,34 +15399,34 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="321" t="s">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A1" s="331" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="323"/>
-    </row>
-    <row r="2" spans="1:7" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="319"/>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="324"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="333"/>
+    </row>
+    <row r="2" spans="1:7" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A2" s="329"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="334"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>262</v>
       </c>
@@ -15403,7 +15435,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="88"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="19" t="s">
         <v>263</v>
       </c>
@@ -15414,7 +15446,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="88"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="19" t="s">
         <v>264</v>
       </c>
@@ -15423,14 +15455,14 @@
       <c r="D5" s="12"/>
       <c r="E5" s="88"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="89"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="88"/>
     </row>
-    <row r="7" spans="1:7" ht="27.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="27.6" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="89"/>
       <c r="B7" s="12" t="s">
         <v>180</v>
@@ -15445,7 +15477,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="7.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="7.9" hidden="1" customHeight="1">
       <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>176</v>
@@ -15461,33 +15493,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="89"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="88"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="89"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="369" t="str">
+      <c r="C10" s="387" t="str">
         <f>IF(E8&gt;0,E8&amp;" Poller",D8&amp;" Poller")</f>
         <v>1 Poller</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="88"/>
     </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1">
       <c r="A11" s="89"/>
       <c r="B11" s="246" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="370"/>
+      <c r="C11" s="388"/>
       <c r="D11" s="12"/>
       <c r="E11" s="88"/>
     </row>
-    <row r="12" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="41.45" customHeight="1">
       <c r="A12" s="89"/>
       <c r="B12" s="268" t="s">
         <v>6</v>
@@ -15497,9 +15529,9 @@
         <v>2vCPU</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="432"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="289"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="89"/>
       <c r="B13" s="268" t="s">
         <v>253</v>
@@ -15509,9 +15541,9 @@
         <v>2</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="432"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="289"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1">
       <c r="A14" s="89"/>
       <c r="B14" s="246" t="s">
         <v>251</v>
@@ -15522,7 +15554,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="88"/>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="89"/>
       <c r="B15" s="269" t="s">
         <v>175</v>
@@ -15532,10 +15564,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="432"/>
-    </row>
-    <row r="16" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="335" t="s">
+      <c r="E15" s="289"/>
+    </row>
+    <row r="16" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A16" s="345" t="s">
         <v>280</v>
       </c>
       <c r="B16" s="269" t="s">
@@ -15546,10 +15578,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="432"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="333"/>
+      <c r="E16" s="289"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A17" s="343"/>
       <c r="B17" s="268" t="s">
         <v>4</v>
       </c>
@@ -15558,10 +15590,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="432"/>
-    </row>
-    <row r="18" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="334"/>
+      <c r="E17" s="289"/>
+    </row>
+    <row r="18" spans="1:5" ht="34.5" thickBot="1">
+      <c r="A18" s="344"/>
       <c r="B18" s="269" t="s">
         <v>273</v>
       </c>
@@ -15570,9 +15602,9 @@
         <v>10</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="433"/>
-    </row>
-    <row r="19" spans="1:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="290"/>
+    </row>
+    <row r="19" spans="1:5" ht="34.5" thickBot="1">
       <c r="A19" s="286" t="s">
         <v>281</v>
       </c>
@@ -15583,10 +15615,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="432"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="434"/>
+      <c r="E19" s="289"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A20" s="291"/>
       <c r="B20" s="246" t="s">
         <v>249</v>
       </c>
@@ -15597,10 +15629,10 @@
       <c r="D20" s="95"/>
       <c r="E20" s="96"/>
     </row>
-    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" ht="14.45" customHeight="1"/>
+    <row r="22" spans="1:5" ht="14.45" customHeight="1"/>
+    <row r="23" spans="1:5" ht="14.45" customHeight="1"/>
+    <row r="24" spans="1:5" ht="15" customHeight="1"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vBTDXSCWXFCxcUVfhC+4i+AHLFWM58LQKWPmgrWExq+p60+qYGNYZ0Mlvn3vCCPio+wG0QrLXbiDgd/YQYc0IQ==" saltValue="kgxhImfOX3CVnvr5+H7GAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
